--- a/Luban/ExcelConfig/Datas/ability.xlsx
+++ b/Luban/ExcelConfig/Datas/ability.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="204">
   <si>
     <t>##var</t>
   </si>
@@ -347,7 +347,7 @@
     <t>隐式类技能;移动类技能;</t>
   </si>
   <si>
-    <t>控制器触发`空`true</t>
+    <t>控制器触发`跃进`true</t>
   </si>
   <si>
     <t>移动类技能</t>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>骷髅弓箭手的普攻</t>
+  </si>
+  <si>
+    <t>怪物远程尽量不加霸体</t>
   </si>
   <si>
     <t>打开警示标`0`0.1`wb_gw_kuaishe</t>
@@ -1587,11 +1590,11 @@
   <dimension ref="A1:BX81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2603,7 +2606,7 @@
         <v>-10</v>
       </c>
       <c r="I27" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>118</v>
@@ -2762,7 +2765,7 @@
         <v>-15</v>
       </c>
       <c r="I32" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>118</v>
@@ -2918,7 +2921,7 @@
         <v>-20</v>
       </c>
       <c r="I37" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>118</v>
@@ -3071,7 +3074,7 @@
         <v>-10</v>
       </c>
       <c r="I42" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>118</v>
@@ -3250,7 +3253,7 @@
         <v>-15</v>
       </c>
       <c r="I47" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>118</v>
@@ -3429,7 +3432,7 @@
         <v>-20</v>
       </c>
       <c r="I52" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>118</v>
@@ -3863,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="I65" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>118</v>
@@ -4018,7 +4021,7 @@
         <v>30</v>
       </c>
       <c r="I71" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>118</v>
@@ -4190,7 +4193,7 @@
         <v>30</v>
       </c>
       <c r="I77" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>118</v>
@@ -4374,7 +4377,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="BL18" sqref="BL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5301,6 +5304,9 @@
       <c r="BJ15" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="BK15" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="BL15" s="2" t="s">
         <v>87</v>
       </c>
@@ -5325,10 +5331,10 @@
         <v>136</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BN16" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="39:66">
@@ -5336,7 +5342,7 @@
         <v>137</v>
       </c>
       <c r="BN17" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="39:66">
@@ -5344,12 +5350,12 @@
         <v>138</v>
       </c>
       <c r="BN18" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="66:66">
       <c r="BN19" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1"/>
@@ -5358,10 +5364,10 @@
         <v>20006</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>181</v>
@@ -5504,10 +5510,10 @@
         <v>136</v>
       </c>
       <c r="BJ22" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BN22" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BS22" s="2" t="s">
         <v>187</v>
@@ -5521,7 +5527,7 @@
         <v>188</v>
       </c>
       <c r="BN23" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="39:39">

--- a/Luban/ExcelConfig/Datas/ability.xlsx
+++ b/Luban/ExcelConfig/Datas/ability.xlsx
@@ -10,12 +10,25 @@
     <sheet name="英雄技能" sheetId="2" r:id="rId1"/>
     <sheet name="怪物技能" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="205">
   <si>
     <t>##var</t>
   </si>
@@ -119,36 +132,36 @@
     <t>resist_pri</t>
   </si>
   <si>
+    <t>exclu_pri</t>
+  </si>
+  <si>
     <t>keep_pri</t>
   </si>
   <si>
-    <t>exclu_pri</t>
+    <t>dis_pri</t>
   </si>
   <si>
     <t>run_pri</t>
   </si>
   <si>
-    <t>dis_pri</t>
-  </si>
-  <si>
     <t>sp_pass</t>
   </si>
   <si>
     <t>sp_inter</t>
   </si>
   <si>
+    <t>sp_exclu</t>
+  </si>
+  <si>
     <t>sp_keep</t>
   </si>
   <si>
-    <t>sp_exclu</t>
+    <t>sp_dis</t>
   </si>
   <si>
     <t>sp_run</t>
   </si>
   <si>
-    <t>sp_dis</t>
-  </si>
-  <si>
     <t>allow_reenter</t>
   </si>
   <si>
@@ -221,36 +234,36 @@
     <t>阻挡优先级</t>
   </si>
   <si>
+    <t>排挤优先级</t>
+  </si>
+  <si>
     <t>保持优先级</t>
   </si>
   <si>
-    <t>排挤优先级</t>
+    <t>禁用优先级</t>
   </si>
   <si>
     <t>运行优先级</t>
   </si>
   <si>
-    <t>禁用优先级</t>
-  </si>
-  <si>
     <t>指定通过</t>
   </si>
   <si>
     <t>指定拦截</t>
   </si>
   <si>
+    <t>指定排挤</t>
+  </si>
+  <si>
     <t>指定保持</t>
   </si>
   <si>
-    <t>指定排挤</t>
+    <t>指定禁用</t>
   </si>
   <si>
     <t>指定运行</t>
   </si>
   <si>
-    <t>指定禁用</t>
-  </si>
-  <si>
     <t>允许重进</t>
   </si>
   <si>
@@ -410,7 +423,7 @@
     <t>播放动画`1`0`attack1</t>
   </si>
   <si>
-    <t>指向伤害`1`0`物攻/1/0;&gt;物理伤害|`fx_hit`ad_attack2</t>
+    <t>指向伤害`1`0`物攻/1/0;&gt;物理伤害`fx_hit`ad_attack2</t>
   </si>
   <si>
     <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害|`col_abi_pikan`fx_hit`ad_attack1</t>
@@ -422,9 +435,6 @@
     <t>修改优先级`1`0.66`29</t>
   </si>
   <si>
-    <t>当技能伤害时附加状态`受击硬直</t>
-  </si>
-  <si>
     <t>施法器冷却评估`0</t>
   </si>
   <si>
@@ -440,7 +450,7 @@
     <t>pikan2</t>
   </si>
   <si>
-    <t>指向伤害`1`0`物攻/2/0;&gt;物理伤害|`fx_hit`ad_attack2</t>
+    <t>指向伤害`1`0`物攻/2/0;&gt;物理伤害`fx_hit`ad_attack2</t>
   </si>
   <si>
     <t>劈砍3</t>
@@ -449,7 +459,7 @@
     <t>pikan3</t>
   </si>
   <si>
-    <t>指向伤害`1`0`物攻/3/0;&gt;物理伤害|`fx_hit`ad_attack2</t>
+    <t>指向伤害`1`0`物攻/3/0;&gt;物理伤害`fx_hit`ad_attack2</t>
   </si>
   <si>
     <t>月之投射</t>
@@ -464,7 +474,7 @@
     <t>抛投物速度</t>
   </si>
   <si>
-    <t>指向投射伤害`1`0`物攻/0.7/0;&gt;物理伤害|`bolt_yuebiao`0`fx_hit`ad_attack1</t>
+    <t>指向投射伤害`1`0`物攻/0.7/0;&gt;物理伤害`bolt_yuebiao`0`fx_hit`ad_attack1</t>
   </si>
   <si>
     <t>月之投射2</t>
@@ -473,7 +483,7 @@
     <t>moonfire2</t>
   </si>
   <si>
-    <t>指向投射伤害`1`0`物攻/1.4/0;&gt;物理伤害|`bolt_yuebiao`0`fx_hit`ad_attack1</t>
+    <t>指向投射伤害`1`0`物攻/1.4/0;&gt;物理伤害`bolt_yuebiao`0`fx_hit`ad_attack1</t>
   </si>
   <si>
     <t>月之投射3</t>
@@ -482,7 +492,7 @@
     <t>moonfire3</t>
   </si>
   <si>
-    <t>指向投射伤害`1`0`物攻/2.1/0;&gt;物理伤害|`bolt_yuebiao`0`fx_hit`ad_attack1</t>
+    <t>指向投射伤害`1`0`物攻/2.1/0;&gt;物理伤害`bolt_yuebiao`0`fx_hit`ad_attack1</t>
   </si>
   <si>
     <t>大蒜</t>
@@ -497,7 +507,7 @@
     <t>显式类技能;攻击类技能</t>
   </si>
   <si>
-    <t>球体碰撞伤害`1`0`1`物攻/0.2/0;&gt;物理伤害|`fx_hit`xxx</t>
+    <t>球体碰撞伤害`1`0`1`物攻/0.2/0;&gt;物理伤害`fx_hit`xxx</t>
   </si>
   <si>
     <t>流星落</t>
@@ -536,7 +546,7 @@
     <t>liehuodaofa</t>
   </si>
   <si>
-    <t>碰撞伤害`1`0`1`物攻/3/0;&gt;物理伤害|`col_abi_liehuodaofa`fx_hit`ad_attack2</t>
+    <t>碰撞伤害`1`0`1`物攻/3/0;&gt;物理伤害`col_abi_liehuodaofa`fx_hit`ad_attack2</t>
   </si>
   <si>
     <t>当技能伤害时附加状态`燃烧</t>
@@ -548,12 +558,21 @@
     <t>tuludaofa</t>
   </si>
   <si>
-    <t>碰撞伤害`1`0`1`物攻/2/0;&gt;物理伤害|`col_abi_tuludaofa`fx_hit`ad_attack2</t>
+    <t>碰撞伤害`1`0`1`物攻/2/0;&gt;物理伤害`col_abi_tuludaofa`fx_hit`ad_attack2</t>
   </si>
   <si>
     <t>当技能伤害时附加状态`流血</t>
   </si>
   <si>
+    <t>地波斩</t>
+  </si>
+  <si>
+    <t>dibozhan</t>
+  </si>
+  <si>
+    <t>地波斩伤害`1`0`物攻/1.5/0;&gt;物理伤害|物攻/1.5/0;&gt;物理伤害`0.1`0.5</t>
+  </si>
+  <si>
     <t>怪物横砍</t>
   </si>
   <si>
@@ -563,16 +582,13 @@
     <t>骷髅怪的普攻</t>
   </si>
   <si>
-    <t>方向移动技能</t>
-  </si>
-  <si>
     <t>播放动画`0`0.1`attack1</t>
   </si>
   <si>
     <t>给自己移除状态`1`0`霸体</t>
   </si>
   <si>
-    <t>打开警示标`0`0.1`wb_gw_hengkan</t>
+    <t>打开警示标`0`0.1`wb_gw_hengkan`0</t>
   </si>
   <si>
     <t>关闭警示标`1`0`wb_gw_hengkan</t>
@@ -584,7 +600,7 @@
     <t>给自己施加状态`0`0.1`霸体</t>
   </si>
   <si>
-    <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害|`col_abi_gw_hengkan`fx_hit`ad_attack1</t>
+    <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害`col_abi_gw_hengkan`fx_hit`ad_attack1</t>
   </si>
   <si>
     <t>怪物快射</t>
@@ -599,16 +615,16 @@
     <t>怪物远程尽量不加霸体</t>
   </si>
   <si>
-    <t>打开警示标`0`0.1`wb_gw_kuaishe</t>
-  </si>
-  <si>
-    <t>方向投射伤害`1`0`物攻/1/0;&gt;物理伤害|`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>方向投射伤害`1`0.5`物攻/1/0;&gt;物理伤害|`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>方向投射伤害`1`1`物攻/1/0;&gt;物理伤害|`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
+    <t>打开警示标`0`0.1`wb_gw_kuaishe`1</t>
+  </si>
+  <si>
+    <t>方向投射伤害`1`0`物攻/1/0;&gt;物理伤害`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
+  </si>
+  <si>
+    <t>方向投射伤害`1`0.5`物攻/1/0;&gt;物理伤害`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
+  </si>
+  <si>
+    <t>方向投射伤害`1`1`物攻/1/0;&gt;物理伤害`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
   </si>
   <si>
     <t>关闭警示标`1`0`wb_gw_kuaishe</t>
@@ -620,19 +636,19 @@
     <t>gw_pikan</t>
   </si>
   <si>
-    <t>打开警示标`0`0.1`wb_gw_pikan</t>
+    <t>打开警示标`0`0.1`wb_gw_pikan`0</t>
   </si>
   <si>
     <t>关闭警示标`1`0`wb_gw_pikan</t>
   </si>
   <si>
-    <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害|`col_abi_gw_pikan`fx_hit`ad_attack1</t>
+    <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害`col_abi_gw_pikan`fx_hit`ad_attack1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1587,14 +1603,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BX81"/>
+  <dimension ref="A1:BX87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="AM65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="AS83" sqref="AS83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2248,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2">
         <v>0</v>
@@ -2304,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
         <v>0</v>
@@ -2357,10 +2373,10 @@
         <v>40</v>
       </c>
       <c r="AS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2">
         <v>0</v>
@@ -2418,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2">
         <v>0</v>
@@ -2540,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="AS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
@@ -2583,7 +2599,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:76">
+    <row r="27" spans="2:71">
       <c r="B27" s="2">
         <v>10100</v>
       </c>
@@ -2676,10 +2692,10 @@
         <v>30</v>
       </c>
       <c r="AS27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="2">
         <v>0</v>
@@ -2723,34 +2739,31 @@
       <c r="BS27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BX27" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="28" spans="39:39">
       <c r="AM28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="39:39">
       <c r="AM29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="39:39">
       <c r="AM30" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="2:76">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="2:71">
       <c r="B32" s="2">
         <v>10101</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>117</v>
@@ -2835,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="2">
         <v>0</v>
@@ -2868,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BP32" s="2" t="s">
         <v>133</v>
@@ -2879,34 +2892,31 @@
       <c r="BS32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BX32" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="33" spans="39:39">
       <c r="AM33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="39:39">
       <c r="AM34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="39:39">
       <c r="AM35" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="2:76">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:71">
       <c r="B37" s="2">
         <v>10102</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>117</v>
@@ -2991,10 +3001,10 @@
         <v>30</v>
       </c>
       <c r="AS37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="2">
         <v>0</v>
@@ -3024,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BP37" s="2" t="s">
         <v>133</v>
@@ -3035,34 +3045,31 @@
       <c r="BS37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BX37" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="38" spans="39:39">
       <c r="AM38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="39:39">
       <c r="AM39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="39:39">
       <c r="AM40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:76">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:71">
       <c r="B42" s="2">
         <v>10300</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3104,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>119</v>
@@ -3119,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z42" s="2" t="s">
         <v>119</v>
@@ -3170,10 +3177,10 @@
         <v>30</v>
       </c>
       <c r="AS42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="2">
         <v>0</v>
@@ -3203,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BP42" s="2" t="s">
         <v>133</v>
@@ -3214,34 +3221,31 @@
       <c r="BS42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BX42" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="43" spans="39:39">
       <c r="AM43" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="39:39">
       <c r="AM44" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="39:39">
       <c r="AM45" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="2:76">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:71">
       <c r="B47" s="2">
         <v>10301</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3283,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>119</v>
@@ -3298,7 +3302,7 @@
         <v>121</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z47" s="2" t="s">
         <v>119</v>
@@ -3349,10 +3353,10 @@
         <v>30</v>
       </c>
       <c r="AS47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="2">
         <v>0</v>
@@ -3382,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BP47" s="2" t="s">
         <v>133</v>
@@ -3393,34 +3397,31 @@
       <c r="BS47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BX47" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="48" spans="39:39">
       <c r="AM48" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="39:39">
       <c r="AM49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="39:39">
       <c r="AM50" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:76">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:71">
       <c r="B52" s="2">
         <v>10302</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -3462,7 +3463,7 @@
         <v>3</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>119</v>
@@ -3477,7 +3478,7 @@
         <v>121</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>119</v>
@@ -3528,10 +3529,10 @@
         <v>30</v>
       </c>
       <c r="AS52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="2">
         <v>0</v>
@@ -3561,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="BN52" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BP52" s="2" t="s">
         <v>133</v>
@@ -3572,23 +3573,20 @@
       <c r="BS52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BX52" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="53" spans="39:39">
       <c r="AM53" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="39:39">
       <c r="AM54" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="39:39">
       <c r="AM55" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="2:62">
@@ -3596,13 +3594,13 @@
         <v>10200</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -3626,7 +3624,7 @@
         <v>-1</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>119</v>
@@ -3653,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ57" s="2" t="s">
         <v>125</v>
@@ -3701,17 +3699,17 @@
         <v>0.1</v>
       </c>
       <c r="BJ57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="39:39">
       <c r="AM59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:61">
@@ -3722,13 +3720,13 @@
         <v>10400</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -3746,7 +3744,7 @@
         <v>-1</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>119</v>
@@ -3761,7 +3759,7 @@
         <v>121</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z61" s="2" t="s">
         <v>119</v>
@@ -3788,10 +3786,10 @@
         <v>75</v>
       </c>
       <c r="AI61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ61" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="AJ61" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="AL61" s="2" t="s">
         <v>127</v>
@@ -3838,23 +3836,23 @@
     </row>
     <row r="62" spans="39:39">
       <c r="AM62" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="2:76">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:71">
       <c r="B65" s="2">
         <v>10600</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -3909,7 +3907,7 @@
         <v>75</v>
       </c>
       <c r="AI65" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AJ65" s="2" t="s">
         <v>125</v>
@@ -3933,10 +3931,10 @@
         <v>40</v>
       </c>
       <c r="AS65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="2">
         <v>0</v>
@@ -3957,7 +3955,7 @@
         <v>0.15</v>
       </c>
       <c r="BJ65" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL65" s="2" t="s">
         <v>87</v>
@@ -3966,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BP65" s="2" t="s">
         <v>133</v>
@@ -3975,30 +3973,27 @@
         <v>0.333</v>
       </c>
       <c r="BS65" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX65" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="39:39">
       <c r="AM66" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="39:39">
       <c r="AM67" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="39:39">
       <c r="AM68" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="39:39">
       <c r="AM69" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="2:76">
@@ -4006,10 +4001,10 @@
         <v>10700</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -4048,10 +4043,10 @@
         <v>120</v>
       </c>
       <c r="R71" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>119</v>
@@ -4078,7 +4073,7 @@
         <v>100</v>
       </c>
       <c r="AI71" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AJ71" s="2" t="s">
         <v>125</v>
@@ -4102,10 +4097,10 @@
         <v>40</v>
       </c>
       <c r="AS71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="2">
         <v>0</v>
@@ -4126,7 +4121,7 @@
         <v>0.15</v>
       </c>
       <c r="BJ71" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL71" s="2" t="s">
         <v>87</v>
@@ -4135,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="BN71" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BP71" s="2" t="s">
         <v>133</v>
@@ -4144,33 +4139,30 @@
         <v>0.333</v>
       </c>
       <c r="BS71" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BX71" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="39:39">
+      <c r="AM72" s="2" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="39:76">
-      <c r="AM72" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BX72" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="39:39">
       <c r="AM74" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="39:39">
       <c r="AM75" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="2:76">
@@ -4178,10 +4170,10 @@
         <v>10800</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -4220,10 +4212,10 @@
         <v>120</v>
       </c>
       <c r="R77" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U77" s="2" t="s">
         <v>119</v>
@@ -4250,7 +4242,7 @@
         <v>100</v>
       </c>
       <c r="AI77" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AJ77" s="2" t="s">
         <v>125</v>
@@ -4274,10 +4266,10 @@
         <v>40</v>
       </c>
       <c r="AS77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU77" s="2">
         <v>0</v>
@@ -4298,7 +4290,7 @@
         <v>0.15</v>
       </c>
       <c r="BJ77" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL77" s="2" t="s">
         <v>87</v>
@@ -4307,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="BN77" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BP77" s="2" t="s">
         <v>133</v>
@@ -4316,33 +4308,211 @@
         <v>0.333</v>
       </c>
       <c r="BS77" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BX77" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="39:39">
+      <c r="AM78" s="2" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="39:76">
-      <c r="AM78" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BX78" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="39:39">
       <c r="AM80" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="39:39">
       <c r="AM81" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="2:71">
+      <c r="B83" s="2">
+        <v>10900</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>30</v>
+      </c>
+      <c r="I83" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M83" s="2">
+        <v>6</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T83" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W83" s="2">
+        <v>2</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y83" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG83" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR83" s="2">
+        <v>40</v>
+      </c>
+      <c r="AS83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI83" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="BJ83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM83" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN83" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BP83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ83" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="BS83" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="39:39">
+      <c r="AM84" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="39:39">
+      <c r="AM85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="39:39">
+      <c r="AM86" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="39:39">
+      <c r="AM87" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4375,9 +4545,9 @@
   <dimension ref="A1:BX25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="AM1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="BL18" sqref="BL18"/>
+      <selection pane="topRight" activeCell="AS3" sqref="AS3:BB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4430,7 +4600,7 @@
     <col min="63" max="63" width="8.875" customWidth="1"/>
     <col min="64" max="64" width="10" customWidth="1"/>
     <col min="65" max="65" width="8.875" customWidth="1"/>
-    <col min="66" max="66" width="54" customWidth="1"/>
+    <col min="66" max="66" width="65.75" customWidth="1"/>
     <col min="67" max="67" width="8.875" customWidth="1"/>
     <col min="68" max="68" width="10" customWidth="1"/>
     <col min="69" max="69" width="8.875" customWidth="1"/>
@@ -5002,13 +5172,13 @@
         <v>20000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="2">
         <v>3.5</v>
@@ -5047,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>119</v>
@@ -5098,19 +5268,16 @@
         <v>30</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2">
         <v>0</v>
       </c>
       <c r="AV10" s="2">
         <v>0</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="BC10" s="2" t="b">
         <v>0</v>
@@ -5125,7 +5292,7 @@
         <v>0.85</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BL10" s="2" t="s">
         <v>87</v>
@@ -5140,37 +5307,37 @@
         <v>1.5</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="39:71">
       <c r="AM11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BN11" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BS11" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="39:66">
       <c r="AM12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ12" s="2" t="s">
-        <v>188</v>
+        <v>136</v>
+      </c>
+      <c r="BK12" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="BN12" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="39:39">
       <c r="AM13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1"/>
@@ -5179,13 +5346,13 @@
         <v>20005</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G15" s="2">
         <v>3.5</v>
@@ -5224,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>119</v>
@@ -5233,7 +5400,7 @@
         <v>120</v>
       </c>
       <c r="W15" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>121</v>
@@ -5275,19 +5442,16 @@
         <v>30</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2">
         <v>0</v>
       </c>
       <c r="AV15" s="2">
         <v>0</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="BC15" s="2" t="b">
         <v>0</v>
@@ -5305,7 +5469,7 @@
         <v>88</v>
       </c>
       <c r="BK15" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BL15" s="2" t="s">
         <v>87</v>
@@ -5323,39 +5487,39 @@
         <v>1.5</v>
       </c>
       <c r="BS15" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="39:66">
       <c r="AM16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BN16" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="39:66">
       <c r="AM17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BN17" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="39:66">
       <c r="AM18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BN18" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="66:66">
       <c r="BN19" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1"/>
@@ -5364,13 +5528,13 @@
         <v>20006</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G21" s="2">
         <v>3.5</v>
@@ -5409,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>119</v>
@@ -5460,19 +5624,16 @@
         <v>30</v>
       </c>
       <c r="AS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
       <c r="AV21" s="2">
         <v>0</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="BC21" s="2" t="b">
         <v>0</v>
@@ -5487,7 +5648,7 @@
         <v>0.85</v>
       </c>
       <c r="BJ21" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BL21" s="2" t="s">
         <v>87</v>
@@ -5502,37 +5663,37 @@
         <v>1.5</v>
       </c>
       <c r="BR21" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="39:71">
       <c r="AM22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BJ22" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BN22" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BS22" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="39:66">
       <c r="AM23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ23" s="2" t="s">
-        <v>188</v>
+        <v>136</v>
+      </c>
+      <c r="BK23" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="BN23" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="39:39">
       <c r="AM24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1"/>

--- a/Luban/ExcelConfig/Datas/ability.xlsx
+++ b/Luban/ExcelConfig/Datas/ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="522"/>
+    <workbookView windowHeight="17680" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="英雄技能" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="209">
   <si>
     <t>##var</t>
   </si>
@@ -63,7 +63,10 @@
     <t>tags</t>
   </si>
   <si>
-    <t>caster</t>
+    <t>caster#default=空</t>
+  </si>
+  <si>
+    <t>caster_of_plw#default=工人空</t>
   </si>
   <si>
     <t>target_tags</t>
@@ -102,6 +105,9 @@
     <t>cast.Info</t>
   </si>
   <si>
+    <t>procedureline.WorkerInfo</t>
+  </si>
+  <si>
     <t>(list#sep=;),FactionType</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>施法器</t>
   </si>
   <si>
+    <t>流水工施法器</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -276,6 +285,9 @@
     <t>动作备注</t>
   </si>
   <si>
+    <t>施法器与流水工施法器二者选一个</t>
+  </si>
+  <si>
     <t>待机</t>
   </si>
   <si>
@@ -285,9 +297,6 @@
     <t>隐式类技能;待机技能</t>
   </si>
   <si>
-    <t>空</t>
-  </si>
-  <si>
     <t>进入</t>
   </si>
   <si>
@@ -522,7 +531,7 @@
     <t>显式类技能;攻击类技能;显示信息类技能</t>
   </si>
   <si>
-    <t>伤害时概率触发`0.2</t>
+    <t>伤害时概率施法`0.2</t>
   </si>
   <si>
     <t>跳劈</t>
@@ -570,7 +579,10 @@
     <t>dibozhan</t>
   </si>
   <si>
-    <t>地波斩伤害`1`0`物攻/1.5/0;&gt;物理伤害|物攻/1.5/0;&gt;物理伤害`0.1`0.5</t>
+    <t>地波斩伤害`1`0`物攻/0.8/0;&gt;物理伤害`6`0.1`1`bolt_dibozhan`col_abi_dibozhan`fx_hit`ad_attack2</t>
+  </si>
+  <si>
+    <t>procedureline.WorkderInfo</t>
   </si>
   <si>
     <t>怪物横砍</t>
@@ -1603,17 +1615,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BX87"/>
+  <dimension ref="A1:BY87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="AM65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="X46" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS83" sqref="AS83"/>
+      <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
@@ -1643,42 +1655,42 @@
     <col min="33" max="33" width="6" style="2" customWidth="1"/>
     <col min="34" max="34" width="4.875" style="2" customWidth="1"/>
     <col min="35" max="35" width="47.5" style="2" customWidth="1"/>
-    <col min="36" max="36" width="29.125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="41.25" style="2" customWidth="1"/>
-    <col min="38" max="38" width="22.875" style="2" customWidth="1"/>
-    <col min="39" max="39" width="27.125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="10" style="2" customWidth="1"/>
-    <col min="41" max="42" width="8.875" style="2" customWidth="1"/>
-    <col min="43" max="48" width="10.875" style="2" customWidth="1"/>
-    <col min="49" max="49" width="8.875" style="2" customWidth="1"/>
-    <col min="50" max="50" width="10.875" style="2" customWidth="1"/>
-    <col min="51" max="54" width="8.875" style="2" customWidth="1"/>
-    <col min="55" max="55" width="13.25" style="2" customWidth="1"/>
-    <col min="56" max="56" width="10" style="2" customWidth="1"/>
-    <col min="57" max="57" width="8.875" style="2" customWidth="1"/>
-    <col min="58" max="58" width="8.25" style="2" customWidth="1"/>
-    <col min="59" max="59" width="8.875" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10" style="2" customWidth="1"/>
-    <col min="61" max="61" width="8.875" style="2" customWidth="1"/>
-    <col min="62" max="62" width="48.625" style="2" customWidth="1"/>
-    <col min="63" max="63" width="14.5" style="2" customWidth="1"/>
-    <col min="64" max="64" width="10" style="2" customWidth="1"/>
-    <col min="65" max="65" width="8.875" style="2" customWidth="1"/>
-    <col min="66" max="66" width="67.375" style="2" customWidth="1"/>
-    <col min="67" max="67" width="8.875" style="2" customWidth="1"/>
-    <col min="68" max="68" width="10" style="2" customWidth="1"/>
-    <col min="69" max="69" width="8.875" style="2" customWidth="1"/>
-    <col min="70" max="70" width="18.5" style="2" customWidth="1"/>
-    <col min="71" max="71" width="8.875" style="2" customWidth="1"/>
-    <col min="72" max="72" width="10" style="2" customWidth="1"/>
-    <col min="73" max="73" width="8.875" style="2" customWidth="1"/>
-    <col min="74" max="74" width="8.25" style="2" customWidth="1"/>
-    <col min="75" max="75" width="8.875" style="2" customWidth="1"/>
-    <col min="76" max="76" width="37.25" style="2" customWidth="1"/>
-    <col min="77" max="16384" width="9" style="2"/>
+    <col min="36" max="37" width="29.125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="41.25" style="2" customWidth="1"/>
+    <col min="39" max="39" width="22.875" style="2" customWidth="1"/>
+    <col min="40" max="40" width="27.125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="10" style="2" customWidth="1"/>
+    <col min="42" max="43" width="8.875" style="2" customWidth="1"/>
+    <col min="44" max="49" width="10.875" style="2" customWidth="1"/>
+    <col min="50" max="50" width="8.875" style="2" customWidth="1"/>
+    <col min="51" max="51" width="10.875" style="2" customWidth="1"/>
+    <col min="52" max="55" width="8.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="13.25" style="2" customWidth="1"/>
+    <col min="57" max="57" width="10" style="2" customWidth="1"/>
+    <col min="58" max="58" width="8.875" style="2" customWidth="1"/>
+    <col min="59" max="59" width="8.25" style="2" customWidth="1"/>
+    <col min="60" max="60" width="8.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="10" style="2" customWidth="1"/>
+    <col min="62" max="62" width="8.875" style="2" customWidth="1"/>
+    <col min="63" max="63" width="48.625" style="2" customWidth="1"/>
+    <col min="64" max="64" width="14.5" style="2" customWidth="1"/>
+    <col min="65" max="65" width="10" style="2" customWidth="1"/>
+    <col min="66" max="66" width="8.875" style="2" customWidth="1"/>
+    <col min="67" max="67" width="67.375" style="2" customWidth="1"/>
+    <col min="68" max="68" width="8.875" style="2" customWidth="1"/>
+    <col min="69" max="69" width="10" style="2" customWidth="1"/>
+    <col min="70" max="70" width="8.875" style="2" customWidth="1"/>
+    <col min="71" max="71" width="18.5" style="2" customWidth="1"/>
+    <col min="72" max="72" width="8.875" style="2" customWidth="1"/>
+    <col min="73" max="73" width="10" style="2" customWidth="1"/>
+    <col min="74" max="74" width="8.875" style="2" customWidth="1"/>
+    <col min="75" max="75" width="8.25" style="2" customWidth="1"/>
+    <col min="76" max="76" width="8.875" style="2" customWidth="1"/>
+    <col min="77" max="77" width="37.25" style="2" customWidth="1"/>
+    <col min="78" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:76">
+    <row r="1" s="1" customFormat="1" spans="1:77">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1751,7 @@
       <c r="AJ1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -1748,43 +1760,46 @@
       <c r="AN1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:76">
+      <c r="BY1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:77">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -1811,28 +1826,31 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="AM2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:72">
+      <c r="BE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:73">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,71 +1895,72 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
-      <c r="AN3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="AL3" s="3"/>
       <c r="AO3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="1">
+        <v>45</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1">
         <v>2</v>
       </c>
-      <c r="BP3" s="1">
+      <c r="BQ3" s="1">
         <v>3</v>
       </c>
-      <c r="BT3" s="1">
+      <c r="BU3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:74">
+    <row r="4" s="1" customFormat="1" spans="1:75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,127 +1968,128 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="AG4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
-      <c r="BD4" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AL4" s="4"/>
       <c r="BE4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
@@ -2079,184 +2099,185 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:75">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:76">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:38">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
+      <c r="AL8" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:62">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:63">
       <c r="B10" s="2">
         <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AJ10" s="2"/>
       <c r="AO10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2">
         <v>-1</v>
       </c>
-      <c r="AP10" s="2">
-        <v>0</v>
-      </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
@@ -2264,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2">
         <v>0</v>
@@ -2275,108 +2296,108 @@
       <c r="AV10" s="2">
         <v>0</v>
       </c>
-      <c r="BC10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI10" s="2">
+      <c r="AW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ10" s="2">
         <v>-1</v>
       </c>
-      <c r="BJ10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:61">
+      <c r="BK10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:62">
       <c r="B11" s="2">
         <v>10001</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>41</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="BI11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>41</v>
-      </c>
-      <c r="AR11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:62">
+      <c r="BJ11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:63">
       <c r="B12" s="2">
         <v>10002</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>1</v>
       </c>
       <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
         <v>41</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AS12" s="2">
         <v>40</v>
       </c>
-      <c r="AS12" s="2">
-        <v>1</v>
-      </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2">
         <v>0</v>
@@ -2384,182 +2405,182 @@
       <c r="AV12" s="2">
         <v>0</v>
       </c>
-      <c r="BC12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI12" s="2">
+      <c r="AW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ12" s="2">
         <v>-1</v>
       </c>
-      <c r="BJ12" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="62:62">
-      <c r="BJ13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:62">
+      <c r="BK12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="63:63">
+      <c r="BK13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:63">
       <c r="B15" s="2">
         <v>10003</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AI15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>15</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="BJ15" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="62:62">
-      <c r="BJ16" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:62">
+    </row>
+    <row r="16" spans="63:63">
+      <c r="BK16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:63">
       <c r="B18" s="2">
         <v>10004</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="AJ18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="63:63">
+      <c r="BK19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AN18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>3</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="BJ18" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="62:62">
-      <c r="BJ19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:62">
+    </row>
+    <row r="21" spans="2:63">
       <c r="B21" s="2">
         <v>10005</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>1</v>
       </c>
       <c r="AQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2">
         <v>15</v>
       </c>
-      <c r="AR21" s="2">
-        <v>0</v>
-      </c>
       <c r="AS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
@@ -2567,50 +2588,53 @@
       <c r="AV21" s="2">
         <v>0</v>
       </c>
-      <c r="AX21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI21" s="2">
+      <c r="AW21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ21" s="2">
         <v>-1</v>
       </c>
-      <c r="BJ21" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="62:62">
-      <c r="BJ22" s="2" t="s">
-        <v>113</v>
+      <c r="BK21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="63:63">
+      <c r="BK22" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="2:71">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:72">
       <c r="B27" s="2">
         <v>10100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -2625,77 +2649,74 @@
         <v>2.5</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M27" s="2">
         <v>1.8</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R27" s="2">
         <v>1</v>
       </c>
       <c r="T27" s="6"/>
       <c r="AD27" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG27" s="2">
         <v>75</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK27" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>1</v>
       </c>
       <c r="AQ27" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="2">
         <v>30</v>
       </c>
       <c r="AS27" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" s="2">
         <v>0</v>
@@ -2703,70 +2724,73 @@
       <c r="AV27" s="2">
         <v>0</v>
       </c>
-      <c r="BC27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI27" s="2">
+      <c r="AW27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ27" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="2" t="s">
-        <v>131</v>
+      <c r="BK27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>0</v>
       </c>
       <c r="BO27" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BP27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ27" s="2">
+        <v>135</v>
+      </c>
+      <c r="BQ27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR27" s="2">
         <v>0.333</v>
       </c>
-      <c r="BS27" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="39:39">
-      <c r="AM28" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="39:39">
-      <c r="AM29" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="39:39">
-      <c r="AM30" s="2" t="s">
+      <c r="BT27" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="2:71">
+    <row r="28" spans="40:40">
+      <c r="AN28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="40:40">
+      <c r="AN29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="40:40">
+      <c r="AN30" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:72">
       <c r="B32" s="2">
         <v>10101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -2781,77 +2805,74 @@
         <v>2.5</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M32" s="2">
         <v>1.8</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R32" s="2">
         <v>2</v>
       </c>
       <c r="T32" s="6"/>
       <c r="AD32" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG32" s="2">
         <v>75</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK32" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>1</v>
       </c>
       <c r="AQ32" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="2">
         <v>30</v>
       </c>
       <c r="AS32" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32" s="2">
         <v>0</v>
@@ -2859,67 +2880,70 @@
       <c r="AV32" s="2">
         <v>0</v>
       </c>
-      <c r="BC32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI32" s="2">
+      <c r="AW32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ32" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM32" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN32" s="2" t="s">
+      <c r="BK32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR32" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="BT32" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="40:40">
+      <c r="AN33" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="40:40">
+      <c r="AN34" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="40:40">
+      <c r="AN35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BP32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ32" s="2">
-        <v>0.333</v>
-      </c>
-      <c r="BS32" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="39:39">
-      <c r="AM33" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="39:39">
-      <c r="AM34" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="39:39">
-      <c r="AM35" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="2:71">
+    </row>
+    <row r="37" spans="2:72">
       <c r="B37" s="2">
         <v>10102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
@@ -2934,77 +2958,74 @@
         <v>2.5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M37" s="2">
         <v>1.8</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R37" s="2">
         <v>3</v>
       </c>
       <c r="T37" s="6"/>
       <c r="AD37" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG37" s="2">
         <v>75</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK37" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AL37" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>1</v>
       </c>
       <c r="AQ37" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="2">
         <v>30</v>
       </c>
       <c r="AS37" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" s="2">
         <v>0</v>
@@ -3012,64 +3033,67 @@
       <c r="AV37" s="2">
         <v>0</v>
       </c>
-      <c r="BC37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI37" s="2">
+      <c r="AW37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ37" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BP37" s="2" t="s">
+      <c r="BK37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BQ37" s="2">
+      <c r="BM37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR37" s="2">
         <v>0.333</v>
       </c>
-      <c r="BS37" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="39:39">
-      <c r="AM38" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="39:39">
-      <c r="AM39" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="39:39">
-      <c r="AM40" s="2" t="s">
+      <c r="BT37" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="2:71">
+    <row r="38" spans="40:40">
+      <c r="AN38" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="40:40">
+      <c r="AN39" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="40:40">
+      <c r="AN40" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:72">
       <c r="B42" s="2">
         <v>10300</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3084,103 +3108,100 @@
         <v>2.5</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M42" s="2">
         <v>8</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R42" s="2">
         <v>1</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W42" s="2">
         <v>1</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB42" s="2">
         <v>8</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG42" s="2">
         <v>50</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP42" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>1</v>
       </c>
       <c r="AQ42" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="2">
         <v>30</v>
       </c>
       <c r="AS42" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU42" s="2">
         <v>0</v>
@@ -3188,64 +3209,67 @@
       <c r="AV42" s="2">
         <v>0</v>
       </c>
-      <c r="BC42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI42" s="2">
+      <c r="AW42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ42" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ42" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM42" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BP42" s="2" t="s">
+      <c r="BK42" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BQ42" s="2">
+      <c r="BM42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR42" s="2">
         <v>0.333</v>
       </c>
-      <c r="BS42" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="39:39">
-      <c r="AM43" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="39:39">
-      <c r="AM44" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="39:39">
-      <c r="AM45" s="2" t="s">
+      <c r="BT42" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="2:71">
+    <row r="43" spans="40:40">
+      <c r="AN43" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="40:40">
+      <c r="AN44" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="40:40">
+      <c r="AN45" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:72">
       <c r="B47" s="2">
         <v>10301</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3260,103 +3284,100 @@
         <v>2.5</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M47" s="2">
         <v>8</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R47" s="2">
         <v>2</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W47" s="2">
         <v>1</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB47" s="2">
         <v>8</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG47" s="2">
         <v>50</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL47" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP47" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>1</v>
       </c>
       <c r="AQ47" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="2">
         <v>30</v>
       </c>
       <c r="AS47" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU47" s="2">
         <v>0</v>
@@ -3364,64 +3385,67 @@
       <c r="AV47" s="2">
         <v>0</v>
       </c>
-      <c r="BC47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI47" s="2">
+      <c r="AW47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ47" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM47" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BP47" s="2" t="s">
+      <c r="BK47" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BQ47" s="2">
+      <c r="BM47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR47" s="2">
         <v>0.333</v>
       </c>
-      <c r="BS47" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="39:39">
-      <c r="AM48" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="39:39">
-      <c r="AM49" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="39:39">
-      <c r="AM50" s="2" t="s">
+      <c r="BT47" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="2:71">
+    <row r="48" spans="40:40">
+      <c r="AN48" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="40:40">
+      <c r="AN49" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="40:40">
+      <c r="AN50" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:72">
       <c r="B52" s="2">
         <v>10302</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -3436,103 +3460,100 @@
         <v>2.5</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M52" s="2">
         <v>8</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R52" s="2">
         <v>3</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W52" s="2">
         <v>1</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB52" s="2">
         <v>8</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG52" s="2">
         <v>50</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ52" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL52" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP52" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>1</v>
       </c>
       <c r="AQ52" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="2">
         <v>30</v>
       </c>
       <c r="AS52" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU52" s="2">
         <v>0</v>
@@ -3540,67 +3561,70 @@
       <c r="AV52" s="2">
         <v>0</v>
       </c>
-      <c r="BC52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI52" s="2">
+      <c r="AW52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ52" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BP52" s="2" t="s">
+      <c r="BK52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BQ52" s="2">
+      <c r="BM52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR52" s="2">
         <v>0.333</v>
       </c>
-      <c r="BS52" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="39:39">
-      <c r="AM53" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="39:39">
-      <c r="AM54" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="39:39">
-      <c r="AM55" s="2" t="s">
+      <c r="BT52" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="2:62">
+    <row r="53" spans="40:40">
+      <c r="AN53" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="40:40">
+      <c r="AN54" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="40:40">
+      <c r="AN55" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="2:63">
       <c r="B57" s="2">
         <v>10200</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -3612,67 +3636,64 @@
         <v>-2</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R57" s="2">
         <v>-1</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W57" s="2">
         <v>4</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG57" s="2">
         <v>0</v>
       </c>
       <c r="AI57" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AJ57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL57" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP57" s="2">
+        <v>130</v>
+      </c>
+      <c r="AN57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="2">
         <v>2</v>
       </c>
-      <c r="AQ57" s="2">
-        <v>1</v>
-      </c>
       <c r="AR57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS57" s="2">
         <v>0</v>
@@ -3686,129 +3707,126 @@
       <c r="AV57" s="2">
         <v>0</v>
       </c>
-      <c r="BC57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI57" s="2">
+      <c r="AW57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ57" s="2">
         <v>0.1</v>
       </c>
-      <c r="BJ57" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="39:39">
-      <c r="AM58" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="39:39">
-      <c r="AM59" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:61">
-      <c r="A61" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="BK57" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="40:40">
+      <c r="AN58" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="40:40">
+      <c r="AN59" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="2:62">
       <c r="B61" s="2">
         <v>10400</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R61" s="2">
         <v>-1</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W61" s="2">
         <v>1</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB61" s="2">
         <v>8</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG61" s="2">
         <v>75</v>
       </c>
       <c r="AI61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ61" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL61" s="2" t="s">
-        <v>127</v>
+        <v>166</v>
+      </c>
+      <c r="AK61" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="AM61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP61" s="2">
+        <v>130</v>
+      </c>
+      <c r="AN61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="2">
         <v>2</v>
       </c>
-      <c r="AQ61" s="2">
+      <c r="AR61" s="2">
         <v>30</v>
       </c>
-      <c r="AR61" s="2">
-        <v>0</v>
-      </c>
       <c r="AS61" s="2">
         <v>0</v>
       </c>
@@ -3821,38 +3839,41 @@
       <c r="AV61" s="2">
         <v>0</v>
       </c>
-      <c r="BC61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="39:39">
-      <c r="AM62" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="39:39">
-      <c r="AM63" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="2:71">
+      <c r="AW61" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="40:40">
+      <c r="AN62" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="40:40">
+      <c r="AN63" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="2:72">
       <c r="B65" s="2">
         <v>10600</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -3867,74 +3888,71 @@
         <v>2.5</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M65" s="2">
         <v>1.8</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R65" s="2">
         <v>3</v>
       </c>
       <c r="T65" s="6"/>
       <c r="AD65" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG65" s="2">
         <v>75</v>
       </c>
       <c r="AI65" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL65" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN65" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP65" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>1</v>
       </c>
       <c r="AQ65" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="2">
         <v>40</v>
       </c>
       <c r="AS65" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AT65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65" s="2">
         <v>0</v>
@@ -3942,69 +3960,72 @@
       <c r="AV65" s="2">
         <v>0</v>
       </c>
-      <c r="BC65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI65" s="2">
+      <c r="AW65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ65" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN65" s="2" t="s">
+      <c r="BK65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR65" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="BT65" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="40:40">
+      <c r="AN66" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="40:40">
+      <c r="AN67" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="40:40">
+      <c r="AN68" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="40:40">
+      <c r="AN69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BP65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ65" s="2">
-        <v>0.333</v>
-      </c>
-      <c r="BS65" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="39:39">
-      <c r="AM66" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="39:39">
-      <c r="AM67" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="39:39">
-      <c r="AM68" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="39:39">
-      <c r="AM69" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="2:76">
+    </row>
+    <row r="71" spans="2:77">
       <c r="B71" s="2">
         <v>10700</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -4019,88 +4040,85 @@
         <v>2.5</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M71" s="2">
         <v>1.8</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R71" s="2">
         <v>-1</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W71" s="2">
         <v>2</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF71" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG71" s="2">
         <v>100</v>
       </c>
       <c r="AI71" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AJ71" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL71" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP71" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO71" s="2">
+        <v>1</v>
       </c>
       <c r="AQ71" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR71" s="2">
         <v>40</v>
       </c>
       <c r="AS71" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AT71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU71" s="2">
         <v>0</v>
@@ -4108,72 +4126,75 @@
       <c r="AV71" s="2">
         <v>0</v>
       </c>
-      <c r="BC71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI71" s="2">
+      <c r="AW71" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ71" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ71" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM71" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN71" s="2" t="s">
+      <c r="BK71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN71" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR71" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="BT71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BY71" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="40:40">
+      <c r="AN72" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="40:40">
+      <c r="AN73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BP71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ71" s="2">
-        <v>0.333</v>
-      </c>
-      <c r="BS71" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BX71" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="39:39">
-      <c r="AM72" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="39:39">
-      <c r="AM73" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="39:39">
-      <c r="AM74" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="39:39">
-      <c r="AM75" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="2:76">
+    </row>
+    <row r="74" spans="40:40">
+      <c r="AN74" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="40:40">
+      <c r="AN75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="2:77">
       <c r="B77" s="2">
         <v>10800</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -4188,88 +4209,85 @@
         <v>2.5</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M77" s="2">
         <v>1.8</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R77" s="2">
         <v>-1</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W77" s="2">
         <v>2</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF77" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG77" s="2">
         <v>100</v>
       </c>
       <c r="AI77" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AJ77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM77" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP77" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO77" s="2">
+        <v>1</v>
       </c>
       <c r="AQ77" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR77" s="2">
         <v>40</v>
       </c>
       <c r="AS77" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AT77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU77" s="2">
         <v>0</v>
@@ -4277,72 +4295,75 @@
       <c r="AV77" s="2">
         <v>0</v>
       </c>
-      <c r="BC77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD77" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH77" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI77" s="2">
+      <c r="AW77" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ77" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ77" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM77" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN77" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP77" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ77" s="2">
+      <c r="BK77" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN77" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO77" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR77" s="2">
         <v>0.333</v>
       </c>
-      <c r="BS77" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BX77" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="39:39">
-      <c r="AM78" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="39:39">
-      <c r="AM79" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="39:39">
-      <c r="AM80" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="39:39">
-      <c r="AM81" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="2:71">
+      <c r="BT77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BY77" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="40:40">
+      <c r="AN78" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="40:40">
+      <c r="AN79" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="40:40">
+      <c r="AN80" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="40:40">
+      <c r="AN81" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="2:72">
       <c r="B83" s="2">
         <v>10900</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -4357,103 +4378,100 @@
         <v>2.5</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M83" s="2">
         <v>6</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R83" s="2">
         <v>-1</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W83" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB83" s="2">
         <v>8</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE83" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG83" s="2">
         <v>100</v>
       </c>
       <c r="AI83" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AJ83" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM83" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN83" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP83" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO83" s="2">
+        <v>1</v>
       </c>
       <c r="AQ83" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR83" s="2">
         <v>40</v>
       </c>
       <c r="AS83" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AT83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU83" s="2">
         <v>0</v>
@@ -4461,78 +4479,81 @@
       <c r="AV83" s="2">
         <v>0</v>
       </c>
-      <c r="BC83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD83" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH83" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI83" s="2">
+      <c r="AW83" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ83" s="2">
         <v>0.15</v>
       </c>
-      <c r="BJ83" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL83" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM83" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN83" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP83" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ83" s="2">
+      <c r="BK83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN83" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ83" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR83" s="2">
         <v>0.333</v>
       </c>
-      <c r="BS83" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="39:39">
-      <c r="AM84" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="39:39">
-      <c r="AM85" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="39:39">
-      <c r="AM86" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="39:39">
-      <c r="AM87" s="2" t="s">
-        <v>137</v>
+      <c r="BT83" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="40:40">
+      <c r="AN84" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="40:40">
+      <c r="AN85" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="40:40">
+      <c r="AN86" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="40:40">
+      <c r="AN87" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="J1:AH1"/>
-    <mergeCell ref="AN1:BC1"/>
-    <mergeCell ref="BD1:BW1"/>
+    <mergeCell ref="AO1:BD1"/>
+    <mergeCell ref="BE1:BX1"/>
     <mergeCell ref="J2:AH2"/>
-    <mergeCell ref="AN2:BC2"/>
-    <mergeCell ref="BD2:BW2"/>
+    <mergeCell ref="AO2:BD2"/>
+    <mergeCell ref="BE2:BX2"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BU3:BW3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4542,15 +4563,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BX25"/>
+  <dimension ref="A1:BY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="AI1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AS3" sqref="AS3:BB7"/>
+      <selection pane="topRight" activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -4581,39 +4602,40 @@
     <col min="34" max="34" width="4.875" customWidth="1"/>
     <col min="35" max="35" width="47.5" customWidth="1"/>
     <col min="36" max="36" width="23.875" customWidth="1"/>
-    <col min="37" max="37" width="5.125" customWidth="1"/>
-    <col min="38" max="38" width="22.875" customWidth="1"/>
-    <col min="39" max="39" width="27.125" customWidth="1"/>
-    <col min="40" max="40" width="10" customWidth="1"/>
-    <col min="41" max="42" width="8.875" customWidth="1"/>
-    <col min="43" max="48" width="10.875" customWidth="1"/>
-    <col min="49" max="49" width="12.875" customWidth="1"/>
-    <col min="50" max="54" width="8.875" customWidth="1"/>
-    <col min="55" max="55" width="13.25" customWidth="1"/>
-    <col min="56" max="56" width="10" customWidth="1"/>
-    <col min="57" max="57" width="8.875" customWidth="1"/>
-    <col min="58" max="58" width="8.25" customWidth="1"/>
-    <col min="59" max="59" width="8.875" customWidth="1"/>
-    <col min="60" max="60" width="10" customWidth="1"/>
-    <col min="61" max="61" width="8.875" customWidth="1"/>
-    <col min="62" max="62" width="28.625" customWidth="1"/>
-    <col min="63" max="63" width="8.875" customWidth="1"/>
-    <col min="64" max="64" width="10" customWidth="1"/>
-    <col min="65" max="65" width="8.875" customWidth="1"/>
-    <col min="66" max="66" width="65.75" customWidth="1"/>
-    <col min="67" max="67" width="8.875" customWidth="1"/>
-    <col min="68" max="68" width="10" customWidth="1"/>
-    <col min="69" max="69" width="8.875" customWidth="1"/>
-    <col min="70" max="70" width="23.125" customWidth="1"/>
-    <col min="71" max="71" width="8.875" customWidth="1"/>
-    <col min="72" max="72" width="10" customWidth="1"/>
-    <col min="73" max="73" width="8.875" customWidth="1"/>
-    <col min="74" max="74" width="8.25" customWidth="1"/>
-    <col min="75" max="75" width="8.875" customWidth="1"/>
-    <col min="76" max="76" width="36.125" customWidth="1"/>
+    <col min="37" max="37" width="26.4166666666667" customWidth="1"/>
+    <col min="38" max="38" width="5.125" customWidth="1"/>
+    <col min="39" max="39" width="22.875" customWidth="1"/>
+    <col min="40" max="40" width="27.125" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="43" width="8.875" customWidth="1"/>
+    <col min="44" max="49" width="10.875" customWidth="1"/>
+    <col min="50" max="50" width="12.875" customWidth="1"/>
+    <col min="51" max="55" width="8.875" customWidth="1"/>
+    <col min="56" max="56" width="13.25" customWidth="1"/>
+    <col min="57" max="57" width="10" customWidth="1"/>
+    <col min="58" max="58" width="8.875" customWidth="1"/>
+    <col min="59" max="59" width="8.25" customWidth="1"/>
+    <col min="60" max="60" width="8.875" customWidth="1"/>
+    <col min="61" max="61" width="10" customWidth="1"/>
+    <col min="62" max="62" width="8.875" customWidth="1"/>
+    <col min="63" max="63" width="28.625" customWidth="1"/>
+    <col min="64" max="64" width="8.875" customWidth="1"/>
+    <col min="65" max="65" width="10" customWidth="1"/>
+    <col min="66" max="66" width="8.875" customWidth="1"/>
+    <col min="67" max="67" width="65.75" customWidth="1"/>
+    <col min="68" max="68" width="8.875" customWidth="1"/>
+    <col min="69" max="69" width="10" customWidth="1"/>
+    <col min="70" max="70" width="8.875" customWidth="1"/>
+    <col min="71" max="71" width="23.125" customWidth="1"/>
+    <col min="72" max="72" width="8.875" customWidth="1"/>
+    <col min="73" max="73" width="10" customWidth="1"/>
+    <col min="74" max="74" width="8.875" customWidth="1"/>
+    <col min="75" max="75" width="8.25" customWidth="1"/>
+    <col min="76" max="76" width="8.875" customWidth="1"/>
+    <col min="77" max="77" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:76">
+    <row r="1" s="1" customFormat="1" spans="1:77">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4696,7 @@
       <c r="AJ1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -4683,43 +4705,46 @@
       <c r="AN1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:76">
+      <c r="BY1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:77">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -4746,28 +4771,31 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="AM2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:72">
+      <c r="BE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:73">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4812,71 +4840,72 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
-      <c r="AN3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="AL3" s="3"/>
       <c r="AO3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="1">
+        <v>45</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1">
         <v>2</v>
       </c>
-      <c r="BP3" s="1">
+      <c r="BQ3" s="1">
         <v>3</v>
       </c>
-      <c r="BT3" s="1">
+      <c r="BU3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:74">
+    <row r="4" s="1" customFormat="1" spans="1:75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4884,127 +4913,128 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="AG4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
-      <c r="BD4" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AL4" s="4"/>
       <c r="BE4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
@@ -5014,171 +5044,174 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:75">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:76">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AR7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="BG7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:71">
       <c r="B10" s="2">
         <v>20000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G10" s="2">
         <v>3.5</v>
@@ -5190,88 +5223,85 @@
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M10" s="2">
         <v>1.75</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R10" s="2">
         <v>1</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W10" s="2">
         <v>2</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG10" s="2">
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1</v>
       </c>
       <c r="AQ10" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="2">
         <v>30</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2">
         <v>0</v>
@@ -5279,80 +5309,83 @@
       <c r="AV10" s="2">
         <v>0</v>
       </c>
-      <c r="BC10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI10" s="2">
+      <c r="AW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ10" s="2">
         <v>0.85</v>
       </c>
-      <c r="BJ10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM10" s="2">
+      <c r="BK10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN10" s="2">
         <v>0.05</v>
       </c>
-      <c r="BP10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ10" s="2">
+      <c r="BQ10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR10" s="2">
         <v>1.5</v>
       </c>
-      <c r="BR10" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="39:71">
-      <c r="AM11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ11" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BS11" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="39:66">
-      <c r="AM12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK12" s="2" t="s">
+      <c r="BS10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BN12" s="2" t="s">
+    </row>
+    <row r="11" s="2" customFormat="1" spans="40:72">
+      <c r="AN11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK11" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="39:39">
-      <c r="AM13" s="2" t="s">
-        <v>137</v>
+      <c r="BO11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT11" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="40:67">
+      <c r="AN12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="40:40">
+      <c r="AN13" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1" spans="2:71">
+    <row r="15" s="2" customFormat="1" spans="2:72">
       <c r="B15" s="2">
         <v>20005</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G15" s="2">
         <v>3.5</v>
@@ -5364,88 +5397,85 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M15" s="2">
         <v>8</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R15" s="2">
         <v>1</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W15" s="2">
         <v>0.75</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG15" s="2">
         <v>0</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>1</v>
       </c>
       <c r="AQ15" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="2">
         <v>30</v>
       </c>
       <c r="AS15" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2">
         <v>0</v>
@@ -5453,88 +5483,91 @@
       <c r="AV15" s="2">
         <v>0</v>
       </c>
-      <c r="BC15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI15" s="2">
+      <c r="AW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ15" s="2">
         <v>0.85</v>
       </c>
-      <c r="BJ15" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="BK15" s="2" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="BL15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM15" s="2">
+        <v>198</v>
+      </c>
+      <c r="BM15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN15" s="2">
         <v>0.3</v>
       </c>
-      <c r="BN15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BP15" s="2" t="s">
+      <c r="BO15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BQ15" s="2">
+      <c r="BQ15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR15" s="2">
         <v>1.5</v>
       </c>
-      <c r="BS15" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="39:66">
-      <c r="AM16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="BN16" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="39:66">
-      <c r="AM17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN17" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="39:66">
-      <c r="AM18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN18" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="66:66">
-      <c r="BN19" s="2" t="s">
+      <c r="BT15" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="40:67">
+      <c r="AN16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK16" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="BO16" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="40:67">
+      <c r="AN17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO17" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="40:67">
+      <c r="AN18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="67:67">
+      <c r="BO19" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1" spans="2:70">
+    <row r="21" s="2" customFormat="1" spans="2:71">
       <c r="B21">
         <v>20006</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G21" s="2">
         <v>3.5</v>
@@ -5546,88 +5579,85 @@
         <v>2</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M21" s="2">
         <v>1.75</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R21" s="2">
         <v>1</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W21" s="2">
         <v>2</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG21" s="2">
         <v>0</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>1</v>
       </c>
       <c r="AQ21" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="2">
         <v>30</v>
       </c>
       <c r="AS21" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
@@ -5635,86 +5665,89 @@
       <c r="AV21" s="2">
         <v>0</v>
       </c>
-      <c r="BC21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI21" s="2">
+      <c r="AW21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ21" s="2">
         <v>0.85</v>
       </c>
-      <c r="BJ21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM21" s="2">
+      <c r="BK21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN21" s="2">
         <v>0.05</v>
       </c>
-      <c r="BP21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ21" s="2">
+      <c r="BQ21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR21" s="2">
         <v>1.5</v>
       </c>
-      <c r="BR21" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="39:71">
-      <c r="AM22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ22" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BN22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS22" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="39:66">
-      <c r="AM23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK23" s="2" t="s">
+      <c r="BS21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BN23" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="39:39">
-      <c r="AM24" s="2" t="s">
-        <v>137</v>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="40:72">
+      <c r="AN22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT22" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="40:67">
+      <c r="AN23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO23" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="40:40">
+      <c r="AN24" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="J1:AH1"/>
-    <mergeCell ref="AN1:BC1"/>
-    <mergeCell ref="BD1:BW1"/>
+    <mergeCell ref="AO1:BD1"/>
+    <mergeCell ref="BE1:BX1"/>
     <mergeCell ref="J2:AH2"/>
-    <mergeCell ref="AN2:BC2"/>
-    <mergeCell ref="BD2:BW2"/>
+    <mergeCell ref="AO2:BD2"/>
+    <mergeCell ref="BE2:BX2"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BU3:BW3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/ability.xlsx
+++ b/Luban/ExcelConfig/Datas/ability.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="212">
   <si>
     <t>##var</t>
   </si>
@@ -102,16 +102,16 @@
     <t>(list#sep=;),TagType</t>
   </si>
   <si>
-    <t>cast.Info</t>
-  </si>
-  <si>
-    <t>procedureline.WorkerInfo</t>
+    <t>cast.Info#sep=,</t>
+  </si>
+  <si>
+    <t>procedureline.WorkerInfo#sep=,</t>
   </si>
   <si>
     <t>(list#sep=;),FactionType</t>
   </si>
   <si>
-    <t>(list#sep=;),behavior.Info</t>
+    <t>(list#sep=;),behavior.Info#sep=,</t>
   </si>
   <si>
     <t>priority.StateInfo</t>
@@ -120,471 +120,477 @@
     <t>list,ability.AbilityStageInfo</t>
   </si>
   <si>
+    <t>(list#sep=;),procedureline.WorkerInfo#sep=,</t>
+  </si>
+  <si>
+    <t>time_scale</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>aisles</t>
+  </si>
+  <si>
+    <t>enter_pri</t>
+  </si>
+  <si>
+    <t>resist_pri</t>
+  </si>
+  <si>
+    <t>exclu_pri</t>
+  </si>
+  <si>
+    <t>keep_pri</t>
+  </si>
+  <si>
+    <t>dis_pri</t>
+  </si>
+  <si>
+    <t>run_pri</t>
+  </si>
+  <si>
+    <t>sp_pass</t>
+  </si>
+  <si>
+    <t>sp_inter</t>
+  </si>
+  <si>
+    <t>sp_exclu</t>
+  </si>
+  <si>
+    <t>sp_keep</t>
+  </si>
+  <si>
+    <t>sp_dis</t>
+  </si>
+  <si>
+    <t>sp_run</t>
+  </si>
+  <si>
+    <t>allow_reenter</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>stageType</t>
+  </si>
+  <si>
+    <t>*actions</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>这是ID</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>附加的数值</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>施法器</t>
+  </si>
+  <si>
+    <t>流水工施法器</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>施法器评估</t>
+  </si>
+  <si>
+    <t>时间缩放</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>作用通道</t>
+  </si>
+  <si>
+    <t>进入优先级</t>
+  </si>
+  <si>
+    <t>阻挡优先级</t>
+  </si>
+  <si>
+    <t>排挤优先级</t>
+  </si>
+  <si>
+    <t>保持优先级</t>
+  </si>
+  <si>
+    <t>禁用优先级</t>
+  </si>
+  <si>
+    <t>运行优先级</t>
+  </si>
+  <si>
+    <t>指定通过</t>
+  </si>
+  <si>
+    <t>指定拦截</t>
+  </si>
+  <si>
+    <t>指定排挤</t>
+  </si>
+  <si>
+    <t>指定保持</t>
+  </si>
+  <si>
+    <t>指定禁用</t>
+  </si>
+  <si>
+    <t>指定运行</t>
+  </si>
+  <si>
+    <t>允许重进</t>
+  </si>
+  <si>
+    <t>阶段类型</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>动作备注</t>
+  </si>
+  <si>
+    <t>施法器与流水工施法器二者选一个</t>
+  </si>
+  <si>
+    <t>待机</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>隐式类技能;待机技能</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
+    <t>施法中</t>
+  </si>
+  <si>
+    <t>播放动画,1,0,idle</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>隐式类技能;停止技能</t>
+  </si>
+  <si>
+    <t>控制器触发,停止,false</t>
+  </si>
+  <si>
+    <t>方向移动</t>
+  </si>
+  <si>
+    <t>DirectionMove</t>
+  </si>
+  <si>
+    <t>隐式类技能;移动类技能;方向移动技能</t>
+  </si>
+  <si>
+    <t>控制器触发,方向移动,true</t>
+  </si>
+  <si>
+    <t>播放动画,1,0,run</t>
+  </si>
+  <si>
+    <t>移动,1,0,1,0</t>
+  </si>
+  <si>
+    <t>点击移动</t>
+  </si>
+  <si>
+    <t>PointMove</t>
+  </si>
+  <si>
+    <t>隐式类技能;移动类技能;点击移动技能</t>
+  </si>
+  <si>
+    <t>控制器触发,点击移动,true</t>
+  </si>
+  <si>
+    <t>移动,1,0,1,1</t>
+  </si>
+  <si>
+    <t>点击移动-内部</t>
+  </si>
+  <si>
+    <t>PointMove_Internal</t>
+  </si>
+  <si>
+    <t>控制器触发,点击移动-内部,true</t>
+  </si>
+  <si>
+    <t>跃进</t>
+  </si>
+  <si>
+    <t>Leap</t>
+  </si>
+  <si>
+    <t>隐式类技能;移动类技能;</t>
+  </si>
+  <si>
+    <t>控制器触发,跃进,true</t>
+  </si>
+  <si>
+    <t>移动类技能</t>
+  </si>
+  <si>
+    <t>播放动画,1,0,sprint</t>
+  </si>
+  <si>
+    <t>跃进,1,0,1</t>
+  </si>
+  <si>
+    <t>以上是通用技能</t>
+  </si>
+  <si>
+    <t>劈砍</t>
+  </si>
+  <si>
+    <t>pikan</t>
+  </si>
+  <si>
+    <t>这是英雄使用的普攻</t>
+  </si>
+  <si>
+    <t>施法范围</t>
+  </si>
+  <si>
+    <t>中间层</t>
+  </si>
+  <si>
+    <t>固定值</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>目标数</t>
+  </si>
+  <si>
+    <t>攻击硬直</t>
+  </si>
+  <si>
+    <t>显式类技能;攻击类技能;普攻类技能;显示信息类技能</t>
+  </si>
+  <si>
+    <t>控制器触发,自动触发,true</t>
+  </si>
+  <si>
+    <t>这里填"空", 意思是暂时不确定, 由游戏中定义</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>并行与节点,0,-1</t>
+  </si>
+  <si>
+    <t>起手中</t>
+  </si>
+  <si>
+    <t>播放动画,1,0,attack1</t>
+  </si>
+  <si>
+    <t>设置数据,1,0,击中特效,hit2</t>
+  </si>
+  <si>
+    <t>收手中</t>
+  </si>
+  <si>
+    <t>修改优先级,1,0.66,29</t>
+  </si>
+  <si>
+    <t>施法器冷却评估,0</t>
+  </si>
+  <si>
+    <t>设置数据,1,0,击中音效,hit2</t>
+  </si>
+  <si>
+    <t>施法器优先器评估,0</t>
+  </si>
+  <si>
+    <t>指向伤害,1,0,物攻/1/0;&gt;物理伤害</t>
+  </si>
+  <si>
+    <t>施法器选择并自动靠近目标,0</t>
+  </si>
+  <si>
+    <t>劈砍2</t>
+  </si>
+  <si>
+    <t>pikan2</t>
+  </si>
+  <si>
+    <t>指向伤害,1,0,物攻/2/0;&gt;物理伤害</t>
+  </si>
+  <si>
+    <t>劈砍3</t>
+  </si>
+  <si>
+    <t>pikan3</t>
+  </si>
+  <si>
+    <t>指向伤害,1,0,物攻/3/0;&gt;物理伤害</t>
+  </si>
+  <si>
+    <t>月之投射</t>
+  </si>
+  <si>
+    <t>moonfire</t>
+  </si>
+  <si>
+    <t>抛投物大小</t>
+  </si>
+  <si>
+    <t>抛投物速度</t>
+  </si>
+  <si>
+    <t>指向投射伤害,1,0,物攻/0.7/0;&gt;物理伤害,月镖投射物,0</t>
+  </si>
+  <si>
+    <t>月之投射2</t>
+  </si>
+  <si>
+    <t>moonfire2</t>
+  </si>
+  <si>
+    <t>指向投射伤害,1,0,物攻/1.4/0;&gt;物理伤害,月镖投射物,0</t>
+  </si>
+  <si>
+    <t>月之投射3</t>
+  </si>
+  <si>
+    <t>moonfire3</t>
+  </si>
+  <si>
+    <t>指向投射伤害,1,0,物攻/2.1/0;&gt;物理伤害,月镖投射物,0</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>dasuan</t>
+  </si>
+  <si>
+    <t>范围持续伤害</t>
+  </si>
+  <si>
+    <t>显式类技能;攻击类技能</t>
+  </si>
+  <si>
+    <t>球体碰撞伤害,1,0,1,物攻/0.2/0;&gt;物理伤害</t>
+  </si>
+  <si>
+    <t>流星落</t>
+  </si>
+  <si>
+    <t>liuxingluo</t>
+  </si>
+  <si>
+    <t>攻击时概率触发流星陨落</t>
+  </si>
+  <si>
+    <t>显式类技能;攻击类技能;显示信息类技能</t>
+  </si>
+  <si>
+    <t>伤害时概率施法,0.2</t>
+  </si>
+  <si>
+    <t>跳劈</t>
+  </si>
+  <si>
+    <t>tiaopi</t>
+  </si>
+  <si>
+    <t>播放动画,1,0,attack3</t>
+  </si>
+  <si>
+    <t>修改优先级,1,0.66,39</t>
+  </si>
+  <si>
+    <t>施法器魔法消耗评估,0</t>
+  </si>
+  <si>
+    <t>烈火刀法</t>
+  </si>
+  <si>
+    <t>liehuodaofa</t>
+  </si>
+  <si>
+    <t>当技能伤害时附加状态,燃烧</t>
+  </si>
+  <si>
+    <t>碰撞伤害,1,0,1,物攻/3/0;&gt;物理伤害,col_abi_liehuodaofa</t>
+  </si>
+  <si>
+    <t>屠戮刀法</t>
+  </si>
+  <si>
+    <t>tuludaofa</t>
+  </si>
+  <si>
+    <t>当技能伤害时附加状态,流血</t>
+  </si>
+  <si>
+    <t>碰撞伤害,1,0,1,物攻/2/0;&gt;物理伤害,col_abi_tuludaofa</t>
+  </si>
+  <si>
+    <t>地波斩</t>
+  </si>
+  <si>
+    <t>dibozhan</t>
+  </si>
+  <si>
+    <t>地波斩伤害,1,0,物攻/0.8/0;&gt;物理伤害,地波斩投射物,6,0.1,1</t>
+  </si>
+  <si>
+    <t>procedureline.WorkderInfo</t>
+  </si>
+  <si>
     <t>(list#sep=;),procedureline.WorkerInfo</t>
   </si>
   <si>
-    <t>time_scale</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>aisles</t>
-  </si>
-  <si>
-    <t>enter_pri</t>
-  </si>
-  <si>
-    <t>resist_pri</t>
-  </si>
-  <si>
-    <t>exclu_pri</t>
-  </si>
-  <si>
-    <t>keep_pri</t>
-  </si>
-  <si>
-    <t>dis_pri</t>
-  </si>
-  <si>
-    <t>run_pri</t>
-  </si>
-  <si>
-    <t>sp_pass</t>
-  </si>
-  <si>
-    <t>sp_inter</t>
-  </si>
-  <si>
-    <t>sp_exclu</t>
-  </si>
-  <si>
-    <t>sp_keep</t>
-  </si>
-  <si>
-    <t>sp_dis</t>
-  </si>
-  <si>
-    <t>sp_run</t>
-  </si>
-  <si>
-    <t>allow_reenter</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>stageType</t>
-  </si>
-  <si>
-    <t>*actions</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>这是ID</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>附加的数值</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>施法器</t>
-  </si>
-  <si>
-    <t>流水工施法器</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>施法器评估</t>
-  </si>
-  <si>
-    <t>时间缩放</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>作用通道</t>
-  </si>
-  <si>
-    <t>进入优先级</t>
-  </si>
-  <si>
-    <t>阻挡优先级</t>
-  </si>
-  <si>
-    <t>排挤优先级</t>
-  </si>
-  <si>
-    <t>保持优先级</t>
-  </si>
-  <si>
-    <t>禁用优先级</t>
-  </si>
-  <si>
-    <t>运行优先级</t>
-  </si>
-  <si>
-    <t>指定通过</t>
-  </si>
-  <si>
-    <t>指定拦截</t>
-  </si>
-  <si>
-    <t>指定排挤</t>
-  </si>
-  <si>
-    <t>指定保持</t>
-  </si>
-  <si>
-    <t>指定禁用</t>
-  </si>
-  <si>
-    <t>指定运行</t>
-  </si>
-  <si>
-    <t>允许重进</t>
-  </si>
-  <si>
-    <t>阶段类型</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>动作备注</t>
-  </si>
-  <si>
-    <t>施法器与流水工施法器二者选一个</t>
-  </si>
-  <si>
-    <t>待机</t>
-  </si>
-  <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>隐式类技能;待机技能</t>
-  </si>
-  <si>
-    <t>进入</t>
-  </si>
-  <si>
-    <t>施法中</t>
-  </si>
-  <si>
-    <t>播放动画`1`0`idle</t>
-  </si>
-  <si>
-    <t>停止</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>隐式类技能;停止技能</t>
-  </si>
-  <si>
-    <t>控制器触发`停止`false</t>
-  </si>
-  <si>
-    <t>方向移动</t>
-  </si>
-  <si>
-    <t>DirectionMove</t>
-  </si>
-  <si>
-    <t>隐式类技能;移动类技能;方向移动技能</t>
-  </si>
-  <si>
-    <t>控制器触发`方向移动`true</t>
-  </si>
-  <si>
-    <t>播放动画`1`0`run</t>
-  </si>
-  <si>
-    <t>移动`1`0`1`0</t>
-  </si>
-  <si>
-    <t>点击移动</t>
-  </si>
-  <si>
-    <t>PointMove</t>
-  </si>
-  <si>
-    <t>隐式类技能;移动类技能;点击移动技能</t>
-  </si>
-  <si>
-    <t>控制器触发`点击移动`true</t>
-  </si>
-  <si>
-    <t>移动`1`0`1`1</t>
-  </si>
-  <si>
-    <t>点击移动-内部</t>
-  </si>
-  <si>
-    <t>PointMove_Internal</t>
-  </si>
-  <si>
-    <t>控制器触发`点击移动-内部`true</t>
-  </si>
-  <si>
-    <t>跃进</t>
-  </si>
-  <si>
-    <t>Leap</t>
-  </si>
-  <si>
-    <t>隐式类技能;移动类技能;</t>
-  </si>
-  <si>
-    <t>控制器触发`跃进`true</t>
-  </si>
-  <si>
-    <t>移动类技能</t>
-  </si>
-  <si>
-    <t>播放动画`1`0`sprint</t>
-  </si>
-  <si>
-    <t>跃进`1`0`1</t>
-  </si>
-  <si>
-    <t>以上是通用技能</t>
-  </si>
-  <si>
-    <t>劈砍</t>
-  </si>
-  <si>
-    <t>pikan</t>
-  </si>
-  <si>
-    <t>这是英雄使用的普攻</t>
-  </si>
-  <si>
-    <t>施法范围</t>
-  </si>
-  <si>
-    <t>中间层</t>
-  </si>
-  <si>
-    <t>固定值</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>目标数</t>
-  </si>
-  <si>
-    <t>攻击硬直</t>
-  </si>
-  <si>
-    <t>显式类技能;攻击类技能;普攻类技能;显示信息类技能</t>
-  </si>
-  <si>
-    <t>控制器触发`自动触发`true</t>
-  </si>
-  <si>
-    <t>这里填"空", 意思是暂时不确定, 由游戏中定义</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>并行与节点`0`-1</t>
-  </si>
-  <si>
-    <t>起手中</t>
-  </si>
-  <si>
-    <t>播放动画`1`0`attack1</t>
-  </si>
-  <si>
-    <t>指向伤害`1`0`物攻/1/0;&gt;物理伤害`fx_hit`ad_attack2</t>
-  </si>
-  <si>
-    <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害|`col_abi_pikan`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>收手中</t>
-  </si>
-  <si>
-    <t>修改优先级`1`0.66`29</t>
-  </si>
-  <si>
-    <t>施法器冷却评估`0</t>
-  </si>
-  <si>
-    <t>施法器优先器评估`0</t>
-  </si>
-  <si>
-    <t>施法器选择并自动靠近目标`0</t>
-  </si>
-  <si>
-    <t>劈砍2</t>
-  </si>
-  <si>
-    <t>pikan2</t>
-  </si>
-  <si>
-    <t>指向伤害`1`0`物攻/2/0;&gt;物理伤害`fx_hit`ad_attack2</t>
-  </si>
-  <si>
-    <t>劈砍3</t>
-  </si>
-  <si>
-    <t>pikan3</t>
-  </si>
-  <si>
-    <t>指向伤害`1`0`物攻/3/0;&gt;物理伤害`fx_hit`ad_attack2</t>
-  </si>
-  <si>
-    <t>月之投射</t>
-  </si>
-  <si>
-    <t>moonfire</t>
-  </si>
-  <si>
-    <t>抛投物大小</t>
-  </si>
-  <si>
-    <t>抛投物速度</t>
-  </si>
-  <si>
-    <t>指向投射伤害`1`0`物攻/0.7/0;&gt;物理伤害`bolt_yuebiao`0`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>月之投射2</t>
-  </si>
-  <si>
-    <t>moonfire2</t>
-  </si>
-  <si>
-    <t>指向投射伤害`1`0`物攻/1.4/0;&gt;物理伤害`bolt_yuebiao`0`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>月之投射3</t>
-  </si>
-  <si>
-    <t>moonfire3</t>
-  </si>
-  <si>
-    <t>指向投射伤害`1`0`物攻/2.1/0;&gt;物理伤害`bolt_yuebiao`0`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>大蒜</t>
-  </si>
-  <si>
-    <t>dasuan</t>
-  </si>
-  <si>
-    <t>范围持续伤害</t>
-  </si>
-  <si>
-    <t>显式类技能;攻击类技能</t>
-  </si>
-  <si>
-    <t>球体碰撞伤害`1`0`1`物攻/0.2/0;&gt;物理伤害`fx_hit`xxx</t>
-  </si>
-  <si>
-    <t>流星落</t>
-  </si>
-  <si>
-    <t>liuxingluo</t>
-  </si>
-  <si>
-    <t>攻击时概率触发流星陨落</t>
-  </si>
-  <si>
-    <t>显式类技能;攻击类技能;显示信息类技能</t>
-  </si>
-  <si>
-    <t>伤害时概率施法`0.2</t>
-  </si>
-  <si>
-    <t>跳劈</t>
-  </si>
-  <si>
-    <t>tiaopi</t>
-  </si>
-  <si>
-    <t>播放动画`1`0`attack3</t>
-  </si>
-  <si>
-    <t>修改优先级`1`0.66`39</t>
-  </si>
-  <si>
-    <t>施法器魔法消耗评估`0</t>
-  </si>
-  <si>
-    <t>烈火刀法</t>
-  </si>
-  <si>
-    <t>liehuodaofa</t>
-  </si>
-  <si>
-    <t>碰撞伤害`1`0`1`物攻/3/0;&gt;物理伤害`col_abi_liehuodaofa`fx_hit`ad_attack2</t>
-  </si>
-  <si>
-    <t>当技能伤害时附加状态`燃烧</t>
-  </si>
-  <si>
-    <t>屠戮刀法</t>
-  </si>
-  <si>
-    <t>tuludaofa</t>
-  </si>
-  <si>
-    <t>碰撞伤害`1`0`1`物攻/2/0;&gt;物理伤害`col_abi_tuludaofa`fx_hit`ad_attack2</t>
-  </si>
-  <si>
-    <t>当技能伤害时附加状态`流血</t>
-  </si>
-  <si>
-    <t>地波斩</t>
-  </si>
-  <si>
-    <t>dibozhan</t>
-  </si>
-  <si>
-    <t>地波斩伤害`1`0`物攻/0.8/0;&gt;物理伤害`6`0.1`1`bolt_dibozhan`col_abi_dibozhan`fx_hit`ad_attack2</t>
-  </si>
-  <si>
-    <t>procedureline.WorkderInfo</t>
-  </si>
-  <si>
     <t>怪物横砍</t>
   </si>
   <si>
@@ -594,25 +600,31 @@
     <t>骷髅怪的普攻</t>
   </si>
   <si>
-    <t>播放动画`0`0.1`attack1</t>
-  </si>
-  <si>
-    <t>给自己移除状态`1`0`霸体</t>
-  </si>
-  <si>
-    <t>打开警示标`0`0.1`wb_gw_hengkan`0</t>
-  </si>
-  <si>
-    <t>关闭警示标`1`0`wb_gw_hengkan</t>
-  </si>
-  <si>
-    <t>修改优先级`1`0`29</t>
-  </si>
-  <si>
-    <t>给自己施加状态`0`0.1`霸体</t>
-  </si>
-  <si>
-    <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害`col_abi_gw_hengkan`fx_hit`ad_attack1</t>
+    <t>播放动画,0,0.1,attack1</t>
+  </si>
+  <si>
+    <t>给自己移除状态,1,0,霸体</t>
+  </si>
+  <si>
+    <t>打开警示标,0,0.1,hengkan,0</t>
+  </si>
+  <si>
+    <t>关闭警示标,1,0,hengkan</t>
+  </si>
+  <si>
+    <t>修改优先级,1,0,29</t>
+  </si>
+  <si>
+    <t>给自己施加状态,0,0.1,霸体</t>
+  </si>
+  <si>
+    <t>设置数据,1,0,击中音效,hit</t>
+  </si>
+  <si>
+    <t>记录发射方向,1,0</t>
+  </si>
+  <si>
+    <t>碰撞伤害,1,0,1,物攻/1/0;&gt;物理伤害,col_abi_gw_hengkan</t>
   </si>
   <si>
     <t>怪物快射</t>
@@ -624,22 +636,19 @@
     <t>骷髅弓箭手的普攻</t>
   </si>
   <si>
-    <t>怪物远程尽量不加霸体</t>
-  </si>
-  <si>
-    <t>打开警示标`0`0.1`wb_gw_kuaishe`1</t>
-  </si>
-  <si>
-    <t>方向投射伤害`1`0`物攻/1/0;&gt;物理伤害`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>方向投射伤害`1`0.5`物攻/1/0;&gt;物理伤害`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>方向投射伤害`1`1`物攻/1/0;&gt;物理伤害`bolt_gw_kuaishe`8`7`fx_hit`ad_attack1</t>
-  </si>
-  <si>
-    <t>关闭警示标`1`0`wb_gw_kuaishe</t>
+    <t>打开警示标,0,0.1,kuaishe,1</t>
+  </si>
+  <si>
+    <t>方向投射伤害,1,0,物攻/1/0;&gt;物理伤害,快射投射物,8,7</t>
+  </si>
+  <si>
+    <t>方向投射伤害,1,0.5,物攻/1/0;&gt;物理伤害,快射投射物,8,7</t>
+  </si>
+  <si>
+    <t>方向投射伤害,1,1,物攻/1/0;&gt;物理伤害,快射投射物,8,7</t>
+  </si>
+  <si>
+    <t>关闭警示标,1,0,kuaishe</t>
   </si>
   <si>
     <t>怪物劈砍</t>
@@ -648,13 +657,13 @@
     <t>gw_pikan</t>
   </si>
   <si>
-    <t>打开警示标`0`0.1`wb_gw_pikan`0</t>
-  </si>
-  <si>
-    <t>关闭警示标`1`0`wb_gw_pikan</t>
-  </si>
-  <si>
-    <t>碰撞伤害`1`0`1`物攻/1/0;&gt;物理伤害`col_abi_gw_pikan`fx_hit`ad_attack1</t>
+    <t>打开警示标,0,0.1,pikan,0</t>
+  </si>
+  <si>
+    <t>关闭警示标,1,0,pikan</t>
+  </si>
+  <si>
+    <t>碰撞伤害,1,0,1,物攻/1/0;&gt;物理伤害,col_abi_gw_pikan</t>
   </si>
 </sst>
 </file>
@@ -1618,11 +1627,11 @@
   <dimension ref="A1:BY87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="X46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
+      <selection pane="bottomRight" activeCell="AG83" sqref="AG83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1676,17 +1685,17 @@
     <col min="64" max="64" width="14.5" style="2" customWidth="1"/>
     <col min="65" max="65" width="10" style="2" customWidth="1"/>
     <col min="66" max="66" width="8.875" style="2" customWidth="1"/>
-    <col min="67" max="67" width="67.375" style="2" customWidth="1"/>
+    <col min="67" max="67" width="81.8333333333333" style="2" customWidth="1"/>
     <col min="68" max="68" width="8.875" style="2" customWidth="1"/>
     <col min="69" max="69" width="10" style="2" customWidth="1"/>
     <col min="70" max="70" width="8.875" style="2" customWidth="1"/>
     <col min="71" max="71" width="18.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="8.875" style="2" customWidth="1"/>
+    <col min="72" max="72" width="24.5" style="2" customWidth="1"/>
     <col min="73" max="73" width="10" style="2" customWidth="1"/>
     <col min="74" max="74" width="8.875" style="2" customWidth="1"/>
     <col min="75" max="75" width="8.25" style="2" customWidth="1"/>
     <col min="76" max="76" width="8.875" style="2" customWidth="1"/>
-    <col min="77" max="77" width="37.25" style="2" customWidth="1"/>
+    <col min="77" max="77" width="40.3333333333333" style="2" customWidth="1"/>
     <col min="78" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2271,12 +2280,8 @@
       <c r="AI10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="2"/>
       <c r="AO10" s="2">
         <v>1</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>-1</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
@@ -2686,7 +2691,7 @@
         <v>123</v>
       </c>
       <c r="AG27" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="2" t="s">
         <v>127</v>
@@ -2751,32 +2756,35 @@
       <c r="BO27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BP27" s="2" t="s">
+      <c r="BQ27" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="BQ27" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="BR27" s="2">
         <v>0.333</v>
       </c>
       <c r="BT27" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="40:67">
+      <c r="AN28" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="28" spans="40:40">
-      <c r="AN28" s="2" t="s">
+      <c r="BO28" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="40:40">
+    <row r="29" spans="40:67">
       <c r="AN29" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BO29" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="40:40">
       <c r="AN30" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:72">
@@ -2784,10 +2792,10 @@
         <v>10101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>120</v>
@@ -2842,7 +2850,7 @@
         <v>123</v>
       </c>
       <c r="AG32" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="2" t="s">
         <v>127</v>
@@ -2905,31 +2913,37 @@
         <v>0</v>
       </c>
       <c r="BO32" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="BQ32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR32" s="2">
         <v>0.333</v>
       </c>
       <c r="BT32" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="40:67">
+      <c r="AN33" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" spans="40:40">
-      <c r="AN33" s="2" t="s">
+      <c r="BO33" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="40:40">
+    <row r="34" spans="40:67">
       <c r="AN34" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BO34" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="2:72">
@@ -2937,10 +2951,10 @@
         <v>10102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>120</v>
@@ -2995,7 +3009,7 @@
         <v>123</v>
       </c>
       <c r="AG37" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="2" t="s">
         <v>127</v>
@@ -3058,31 +3072,37 @@
         <v>0</v>
       </c>
       <c r="BO37" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="BQ37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR37" s="2">
         <v>0.333</v>
       </c>
       <c r="BT37" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="40:67">
+      <c r="AN38" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="40:40">
-      <c r="AN38" s="2" t="s">
+      <c r="BO38" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="40:40">
+    <row r="39" spans="40:67">
       <c r="AN39" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BO39" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="2:72">
@@ -3090,10 +3110,10 @@
         <v>10300</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3135,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>122</v>
@@ -3150,7 +3170,7 @@
         <v>124</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z42" s="2" t="s">
         <v>122</v>
@@ -3174,7 +3194,7 @@
         <v>123</v>
       </c>
       <c r="AG42" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="2" t="s">
         <v>127</v>
@@ -3234,31 +3254,37 @@
         <v>0</v>
       </c>
       <c r="BO42" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="BQ42" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR42" s="2">
         <v>0.333</v>
       </c>
       <c r="BT42" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="40:67">
+      <c r="AN43" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="40:40">
-      <c r="AN43" s="2" t="s">
+      <c r="BO43" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="40:40">
+    <row r="44" spans="40:67">
       <c r="AN44" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BO44" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:72">
@@ -3266,10 +3292,10 @@
         <v>10301</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3311,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>122</v>
@@ -3326,7 +3352,7 @@
         <v>124</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z47" s="2" t="s">
         <v>122</v>
@@ -3350,7 +3376,7 @@
         <v>123</v>
       </c>
       <c r="AG47" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="2" t="s">
         <v>127</v>
@@ -3410,31 +3436,37 @@
         <v>0</v>
       </c>
       <c r="BO47" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="BQ47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR47" s="2">
         <v>0.333</v>
       </c>
       <c r="BT47" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="40:67">
+      <c r="AN48" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="40:40">
-      <c r="AN48" s="2" t="s">
+      <c r="BO48" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="40:40">
+    <row r="49" spans="40:67">
       <c r="AN49" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BO49" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="2:72">
@@ -3442,10 +3474,10 @@
         <v>10302</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -3487,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>122</v>
@@ -3502,7 +3534,7 @@
         <v>124</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>122</v>
@@ -3526,7 +3558,7 @@
         <v>123</v>
       </c>
       <c r="AG52" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="2" t="s">
         <v>127</v>
@@ -3586,31 +3618,37 @@
         <v>0</v>
       </c>
       <c r="BO52" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="BQ52" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR52" s="2">
         <v>0.333</v>
       </c>
       <c r="BT52" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="40:67">
+      <c r="AN53" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="40:40">
-      <c r="AN53" s="2" t="s">
+      <c r="BO53" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="40:40">
+    <row r="54" spans="40:67">
       <c r="AN54" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BO54" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:63">
@@ -3618,13 +3656,13 @@
         <v>10200</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -3648,7 +3686,7 @@
         <v>-1</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>122</v>
@@ -3675,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ57" s="2" t="s">
         <v>128</v>
@@ -3723,12 +3761,12 @@
         <v>0.1</v>
       </c>
       <c r="BK57" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="40:40">
@@ -3741,13 +3779,13 @@
         <v>10400</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -3765,7 +3803,7 @@
         <v>-1</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>122</v>
@@ -3780,7 +3818,7 @@
         <v>124</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z61" s="2" t="s">
         <v>122</v>
@@ -3804,13 +3842,13 @@
         <v>123</v>
       </c>
       <c r="AG61" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK61" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM61" s="2" t="s">
         <v>130</v>
@@ -3857,7 +3895,7 @@
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="40:40">
@@ -3870,10 +3908,10 @@
         <v>10600</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -3925,10 +3963,10 @@
         <v>123</v>
       </c>
       <c r="AG65" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ65" s="2" t="s">
         <v>128</v>
@@ -3976,7 +4014,7 @@
         <v>0.15</v>
       </c>
       <c r="BK65" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BM65" s="2" t="s">
         <v>90</v>
@@ -3985,26 +4023,32 @@
         <v>0</v>
       </c>
       <c r="BO65" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="BQ65" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR65" s="2">
         <v>0.333</v>
       </c>
       <c r="BT65" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="40:40">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="40:67">
       <c r="AN66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO66" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="40:40">
+    <row r="67" spans="40:67">
       <c r="AN67" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="BO67" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="40:40">
@@ -4014,7 +4058,7 @@
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="2:77">
@@ -4022,10 +4066,10 @@
         <v>10700</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -4067,7 +4111,7 @@
         <v>-1</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>122</v>
@@ -4091,10 +4135,10 @@
         <v>123</v>
       </c>
       <c r="AG71" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ71" s="2" t="s">
         <v>128</v>
@@ -4142,7 +4186,7 @@
         <v>0.15</v>
       </c>
       <c r="BK71" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BM71" s="2" t="s">
         <v>90</v>
@@ -4151,29 +4195,35 @@
         <v>0</v>
       </c>
       <c r="BO71" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="BQ71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR71" s="2">
         <v>0.333</v>
       </c>
       <c r="BT71" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BY71" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="40:40">
+    <row r="72" spans="40:67">
       <c r="AN72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO72" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="40:40">
+    <row r="73" spans="40:67">
       <c r="AN73" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="BO73" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="40:40">
@@ -4183,7 +4233,7 @@
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="2:77">
@@ -4191,10 +4241,10 @@
         <v>10800</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -4236,7 +4286,7 @@
         <v>-1</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U77" s="2" t="s">
         <v>122</v>
@@ -4260,10 +4310,10 @@
         <v>123</v>
       </c>
       <c r="AG77" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI77" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ77" s="2" t="s">
         <v>128</v>
@@ -4311,7 +4361,7 @@
         <v>0.15</v>
       </c>
       <c r="BK77" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BM77" s="2" t="s">
         <v>90</v>
@@ -4320,29 +4370,35 @@
         <v>0</v>
       </c>
       <c r="BO77" s="2" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="BQ77" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR77" s="2">
         <v>0.333</v>
       </c>
       <c r="BT77" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BY77" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="40:40">
+    <row r="78" spans="40:67">
       <c r="AN78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO78" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="40:40">
+    <row r="79" spans="40:67">
       <c r="AN79" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="BO79" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="40:40">
@@ -4352,7 +4408,7 @@
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="2:72">
@@ -4360,10 +4416,10 @@
         <v>10900</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -4405,7 +4461,7 @@
         <v>-1</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U83" s="2" t="s">
         <v>122</v>
@@ -4420,7 +4476,7 @@
         <v>124</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z83" s="2" t="s">
         <v>122</v>
@@ -4444,10 +4500,10 @@
         <v>123</v>
       </c>
       <c r="AG83" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ83" s="2" t="s">
         <v>128</v>
@@ -4495,7 +4551,7 @@
         <v>0.15</v>
       </c>
       <c r="BK83" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BM83" s="2" t="s">
         <v>90</v>
@@ -4504,26 +4560,32 @@
         <v>0</v>
       </c>
       <c r="BO83" s="2" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="BQ83" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR83" s="2">
         <v>0.333</v>
       </c>
       <c r="BT83" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="40:40">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="40:67">
       <c r="AN84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO84" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="40:40">
+    <row r="85" spans="40:67">
       <c r="AN85" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="BO85" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="40:40">
@@ -4533,7 +4595,7 @@
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4563,12 +4625,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BY25"/>
+  <dimension ref="A1:BY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AK13" sqref="AK13"/>
+      <selection pane="topRight" activeCell="BO32" sqref="BO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4777,7 +4839,7 @@
         <v>24</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>26</v>
@@ -4792,7 +4854,7 @@
         <v>29</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:73">
@@ -5205,13 +5267,13 @@
         <v>20000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="2">
         <v>3.5</v>
@@ -5250,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>122</v>
@@ -5325,7 +5387,7 @@
         <v>0.85</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BM10" s="2" t="s">
         <v>90</v>
@@ -5333,403 +5395,439 @@
       <c r="BN10" s="2">
         <v>0.05</v>
       </c>
+      <c r="BO10" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="BQ10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BR10" s="2">
         <v>1.5</v>
       </c>
       <c r="BS10" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="40:72">
       <c r="AN11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BK11" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO11" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BT11" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="40:67">
       <c r="AN12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BL12" s="2" t="s">
-        <v>193</v>
+      <c r="BK12" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="BO12" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="40:67">
+      <c r="AN13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1" spans="2:72">
+      <c r="B16" s="2">
+        <v>20005</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="2">
+        <v>8</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>30</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>30</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="BK16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="BS16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT16" s="2" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="40:40">
-      <c r="AN13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1" spans="2:72">
-      <c r="B15" s="2">
-        <v>20005</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-10</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="2">
-        <v>8</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>30</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>30</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ15" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="BK15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BM15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BO15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="BT15" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="40:67">
-      <c r="AN16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BK16" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BO16" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="40:67">
       <c r="AN17" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="BK17" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="BO17" s="2" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="40:67">
       <c r="AN18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="BO18" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="67:67">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="40:67">
+      <c r="AN19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="BO19" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1" spans="2:71">
-      <c r="B21">
+    <row r="20" s="2" customFormat="1" spans="67:67">
+      <c r="BO20" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="67:67">
+      <c r="BO21" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="67:67">
+      <c r="BO22" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="25" s="2" customFormat="1" spans="2:71">
+      <c r="B25">
         <v>20006</v>
       </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="2">
         <v>3.5</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H25" s="2">
         <v>-10</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I25" s="2">
         <v>2</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M25" s="2">
         <v>1.75</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="U21" s="2" t="s">
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W25" s="2">
         <v>2</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AG21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AJ25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AM21" s="2" t="s">
+      <c r="AM25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AN25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AO21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="2">
+      <c r="AO25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="2">
         <v>30</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AS25" s="2">
         <v>30</v>
       </c>
-      <c r="AT21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="2" t="s">
+      <c r="AT25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BI21" s="2" t="s">
+      <c r="BI25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BJ21" s="2">
+      <c r="BJ25" s="2">
         <v>0.85</v>
       </c>
-      <c r="BK21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BM21" s="2" t="s">
+      <c r="BK25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BN21" s="2">
+      <c r="BN25" s="2">
         <v>0.05</v>
       </c>
-      <c r="BQ21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR21" s="2">
+      <c r="BO25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR25" s="2">
         <v>1.5</v>
       </c>
-      <c r="BS21" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="40:72">
-      <c r="AN22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BK22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT22" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="40:67">
-      <c r="AN23" s="2" t="s">
+      <c r="BS25" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="40:72">
+      <c r="AN26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT26" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="40:67">
+      <c r="AN27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BL23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO23" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="40:40">
-      <c r="AN24" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1"/>
+      <c r="BK27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO27" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="40:67">
+      <c r="AN28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO28" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="J1:AH1"/>

--- a/Luban/ExcelConfig/Datas/ability.xlsx
+++ b/Luban/ExcelConfig/Datas/ability.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="188">
   <si>
     <t>##var</t>
   </si>
@@ -378,7 +378,7 @@
     <t>播放动画,1,0,attack1</t>
   </si>
   <si>
-    <t>指向伤害,1,0,物攻/1/0;&gt;物理伤害</t>
+    <t>指向伤害,1,0,配方1/物攻/1/0;&gt;物理伤害</t>
   </si>
   <si>
     <t>收手中</t>
@@ -417,7 +417,10 @@
     <t>抛投物速度</t>
   </si>
   <si>
-    <t>指向投射伤害,1,0,物攻/0.7/0;&gt;物理伤害,月镖投射物,0</t>
+    <t>播放动画,1,0,attack2</t>
+  </si>
+  <si>
+    <t>指向投射伤害,1,0,配方1/物攻/0.7/0;&gt;物理伤害,月镖投射物,0</t>
   </si>
   <si>
     <t>瘟疫</t>
@@ -432,7 +435,7 @@
     <t>显式类技能;攻击类技能</t>
   </si>
   <si>
-    <t>球体碰撞伤害,1,0,1,物攻/0.2/0;&gt;物理伤害,0`0`0,0.5</t>
+    <t>球体碰撞伤害,1,0,1,配方1/物攻/0.2/0;&gt;物理伤害,0`0`0,0.5</t>
   </si>
   <si>
     <t>流星落</t>
@@ -450,7 +453,7 @@
     <t>播放动画,1,0,attack3</t>
   </si>
   <si>
-    <t>指向伤害,1,0,物攻/1.5/0;&gt;物理伤害</t>
+    <t>指向伤害,1,0,配方1/物攻/1.5/0;&gt;物理伤害</t>
   </si>
   <si>
     <t>修改优先级,1,0.66,39</t>
@@ -462,7 +465,7 @@
     <t>烈火刀法</t>
   </si>
   <si>
-    <t>盒体碰撞伤害,1,0,1,物攻/1.5/0;&gt;物理伤害,0`0`0.5,1`1`1</t>
+    <t>盒体碰撞伤害,1,0,1,配方1/物攻/1.5/0;&gt;物理伤害,0`0`0.5,1`1`1</t>
   </si>
   <si>
     <t>燃烧</t>
@@ -471,7 +474,7 @@
     <t>屠戮刀法</t>
   </si>
   <si>
-    <t>盒体碰撞伤害,1,0,1,物攻/1.2/0;&gt;物理伤害,0`0`0.5,1`1`1</t>
+    <t>盒体碰撞伤害,1,0,1,配方1/物攻/1.2/0;&gt;物理伤害,0`0`0.5,1`1`1</t>
   </si>
   <si>
     <t>流血</t>
@@ -480,7 +483,7 @@
     <t>地波斩</t>
   </si>
   <si>
-    <t>地波斩伤害,1,0,物攻/0.8/0;&gt;物理伤害,地波斩投射物,12,0.13,0.5</t>
+    <t>地波斩伤害,1,0,配方1/物攻/0.8/0;&gt;物理伤害,地波斩投射物,12,0.13,0.5</t>
   </si>
   <si>
     <t>瘴气</t>
@@ -516,15 +519,18 @@
     <t>读条中</t>
   </si>
   <si>
+    <t>播放动画,1,0,reading</t>
+  </si>
+  <si>
+    <t>指向投射伤害,1,0,配方1/物攻/3/10;&gt;物理伤害,混乱之箭投射物,0</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
     <t>死亡终止检查,1,0,1</t>
   </si>
   <si>
-    <t>指向投射伤害,1,0,物攻/3/10;&gt;物理伤害,混乱之箭投射物,0</t>
-  </si>
-  <si>
-    <t>分裂</t>
-  </si>
-  <si>
     <t>击退</t>
   </si>
   <si>
@@ -543,7 +549,7 @@
     <t>打开警示标,0,0.1,hengkan,0</t>
   </si>
   <si>
-    <t>盒体碰撞伤害,1,0,1,物攻/0.75/0;&gt;物理伤害,0`0`0.5,1`1`1</t>
+    <t>盒体碰撞伤害,1,0,1,配方1/物攻/0.75/0;&gt;物理伤害,0`0`0.5,1`1`1</t>
   </si>
   <si>
     <t>修改优先级,1,0,29</t>
@@ -564,13 +570,13 @@
     <t>关闭警示标,1,0,kuaishe</t>
   </si>
   <si>
-    <t>方向投射伤害,1,0,物攻/0.75/0;&gt;物理伤害,快射投射物,8,7</t>
-  </si>
-  <si>
-    <t>方向投射伤害,1,0.5,物攻/0.75/0;&gt;物理伤害,快射投射物,8,7</t>
-  </si>
-  <si>
-    <t>方向投射伤害,1,1,物攻/0.75/0;&gt;物理伤害,快射投射物,8,7</t>
+    <t>方向投射伤害,1,0,配方1/物攻/0.75/0;&gt;物理伤害,快射投射物,8,7</t>
+  </si>
+  <si>
+    <t>方向投射伤害,1,0.5,配方1/物攻/0.75/0;&gt;物理伤害,快射投射物,8,7</t>
+  </si>
+  <si>
+    <t>方向投射伤害,1,1,配方1/物攻/0.75/0;&gt;物理伤害,快射投射物,8,7</t>
   </si>
   <si>
     <t>怪物劈砍</t>
@@ -582,7 +588,7 @@
     <t>打开警示标,0,0.1,pikan,0</t>
   </si>
   <si>
-    <t>盒体碰撞伤害,1,0,1,物攻/0.75/0;&gt;物理伤害,0`0`1.2,0.65`1`2.15</t>
+    <t>盒体碰撞伤害,1,0,1,配方1/物攻/0.75/0;&gt;物理伤害,0`0`1.2,0.65`1`2.15</t>
   </si>
   <si>
     <t>怪物技能</t>
@@ -1549,11 +1555,11 @@
   <dimension ref="A1:BY88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="BI25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="BJ46" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BR45" sqref="BR45"/>
+      <selection pane="bottomRight" activeCell="BQ88" sqref="BQ88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1588,7 +1594,7 @@
     <col min="28" max="28" width="8.75" style="2" customWidth="1"/>
     <col min="29" max="29" width="5.83333333333333" style="2" customWidth="1"/>
     <col min="30" max="30" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="31" max="31" width="46.8333333333333" style="2" customWidth="1"/>
+    <col min="31" max="31" width="57.5833333333333" style="2" customWidth="1"/>
     <col min="32" max="32" width="28.3333333333333" style="2" customWidth="1"/>
     <col min="33" max="33" width="34.5833333333333" style="2" customWidth="1"/>
     <col min="34" max="34" width="40.8333333333333" style="2" customWidth="1"/>
@@ -1607,15 +1613,15 @@
     <col min="56" max="56" width="8.75" style="2" customWidth="1"/>
     <col min="57" max="57" width="9.83333333333333" style="2" customWidth="1"/>
     <col min="58" max="58" width="8.75" style="2" customWidth="1"/>
-    <col min="59" max="59" width="45.5" style="2" customWidth="1"/>
+    <col min="59" max="59" width="51.4166666666667" style="2" customWidth="1"/>
     <col min="60" max="60" width="8.75" style="2" customWidth="1"/>
     <col min="61" max="61" width="9.83333333333333" style="2" customWidth="1"/>
     <col min="62" max="62" width="8.75" style="2" customWidth="1"/>
-    <col min="63" max="63" width="56.5833333333333" style="2" customWidth="1"/>
+    <col min="63" max="63" width="62.5833333333333" style="2" customWidth="1"/>
     <col min="64" max="64" width="8.75" style="2" customWidth="1"/>
     <col min="65" max="65" width="9.83333333333333" style="2" customWidth="1"/>
     <col min="66" max="66" width="8.75" style="2" customWidth="1"/>
-    <col min="67" max="67" width="49.1666666666667" style="2" customWidth="1"/>
+    <col min="67" max="67" width="57.6666666666667" style="2" customWidth="1"/>
     <col min="68" max="68" width="19.25" style="2" customWidth="1"/>
     <col min="69" max="69" width="9.83333333333333" style="2" customWidth="1"/>
     <col min="70" max="70" width="8.75" style="2" customWidth="1"/>
@@ -2860,7 +2866,7 @@
         <v>0.15</v>
       </c>
       <c r="BG33" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="BI33" s="2" t="s">
         <v>77</v>
@@ -2869,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BM33" s="2" t="s">
         <v>117</v>
@@ -2881,7 +2887,7 @@
         <v>118</v>
       </c>
       <c r="BY33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="36:59">
@@ -2897,7 +2903,7 @@
         <v>122</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="36:36">
@@ -2915,7 +2921,7 @@
         <v>10200</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>101</v>
@@ -2960,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>110</v>
@@ -3008,7 +3014,7 @@
         <v>0.1</v>
       </c>
       <c r="BG39" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="36:36">
@@ -3031,7 +3037,7 @@
         <v>10400</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>101</v>
@@ -3070,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI44" s="2" t="s">
         <v>112</v>
@@ -3138,7 +3144,7 @@
         <v>10600</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>101</v>
@@ -3193,7 +3199,7 @@
         <v>25</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF49" s="2" t="s">
         <v>110</v>
@@ -3241,7 +3247,7 @@
         <v>0.15</v>
       </c>
       <c r="BG49" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI49" s="2" t="s">
         <v>77</v>
@@ -3250,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM49" s="2" t="s">
         <v>117</v>
@@ -3259,10 +3265,10 @@
         <v>0.333</v>
       </c>
       <c r="BP49" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BY49" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="36:59">
@@ -3296,7 +3302,7 @@
         <v>10700</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>101</v>
@@ -3359,7 +3365,7 @@
         <v>25</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF55" s="2" t="s">
         <v>110</v>
@@ -3407,7 +3413,7 @@
         <v>0.15</v>
       </c>
       <c r="BG55" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI55" s="2" t="s">
         <v>77</v>
@@ -3416,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BM55" s="2" t="s">
         <v>117</v>
@@ -3425,10 +3431,10 @@
         <v>0.333</v>
       </c>
       <c r="BP55" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BY55" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="36:59">
@@ -3462,7 +3468,7 @@
         <v>10800</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>101</v>
@@ -3525,7 +3531,7 @@
         <v>25</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF61" s="2" t="s">
         <v>110</v>
@@ -3573,7 +3579,7 @@
         <v>0.15</v>
       </c>
       <c r="BG61" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI61" s="2" t="s">
         <v>77</v>
@@ -3582,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BM61" s="2" t="s">
         <v>117</v>
@@ -3591,10 +3597,10 @@
         <v>0.333</v>
       </c>
       <c r="BP61" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BY61" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="36:77">
@@ -3629,7 +3635,7 @@
         <v>10900</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>101</v>
@@ -3701,7 +3707,7 @@
         <v>25</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF67" s="2" t="s">
         <v>110</v>
@@ -3749,7 +3755,7 @@
         <v>0.15</v>
       </c>
       <c r="BG67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI67" s="2" t="s">
         <v>77</v>
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="BK67" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BM67" s="2" t="s">
         <v>117</v>
@@ -3767,7 +3773,7 @@
         <v>0.333</v>
       </c>
       <c r="BP67" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="36:59">
@@ -3801,7 +3807,7 @@
         <v>11000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>101</v>
@@ -3840,7 +3846,7 @@
         <v>103</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF73" s="2" t="s">
         <v>110</v>
@@ -3888,7 +3894,7 @@
         <v>0.1</v>
       </c>
       <c r="BG73" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="36:36">
@@ -3911,7 +3917,7 @@
         <v>11001</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>101</v>
@@ -3935,14 +3941,14 @@
         <v>0</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N78" s="2">
         <v>1</v>
       </c>
       <c r="V78" s="5"/>
       <c r="AE78" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF78" s="2" t="s">
         <v>110</v>
@@ -3990,7 +3996,7 @@
         <v>0.15</v>
       </c>
       <c r="BG78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI78" s="2" t="s">
         <v>77</v>
@@ -3999,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="BK78" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BM78" s="2" t="s">
         <v>117</v>
@@ -4008,7 +4014,7 @@
         <v>0.333</v>
       </c>
       <c r="BP78" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="36:36">
@@ -4028,7 +4034,7 @@
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="2:77">
@@ -4036,7 +4042,7 @@
         <v>11002</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>101</v>
@@ -4108,7 +4114,7 @@
         <v>50</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF84" s="2" t="s">
         <v>110</v>
@@ -4150,13 +4156,13 @@
         <v>76</v>
       </c>
       <c r="BE84" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BF84" s="2">
         <v>1</v>
       </c>
       <c r="BG84" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BI84" s="2" t="s">
         <v>114</v>
@@ -4174,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="BO84" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BQ84" s="2" t="s">
         <v>117</v>
@@ -4186,7 +4192,7 @@
         <v>118</v>
       </c>
       <c r="BY84" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="36:77">
@@ -4194,10 +4200,10 @@
         <v>120</v>
       </c>
       <c r="BG85" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="BY85" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="36:59">
@@ -4205,12 +4211,15 @@
         <v>122</v>
       </c>
       <c r="BG86" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="36:36">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="36:59">
       <c r="AJ87" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="BG87" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="36:36">
@@ -4253,9 +4262,9 @@
   <dimension ref="A1:BV35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="BD1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="BI84" sqref="BI84"/>
+      <selection pane="topRight" activeCell="BH34" sqref="BH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4861,7 +4870,7 @@
         <v>20000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>101</v>
@@ -4972,7 +4981,7 @@
         <v>0.85</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BF10" s="2" t="s">
         <v>77</v>
@@ -4981,7 +4990,7 @@
         <v>0.05</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BJ10" s="2" t="s">
         <v>117</v>
@@ -4990,7 +4999,7 @@
         <v>1.5</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="33:65">
@@ -4998,13 +5007,13 @@
         <v>120</v>
       </c>
       <c r="BD11" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BM11" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="33:57">
@@ -5012,10 +5021,10 @@
         <v>124</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="33:56">
@@ -5028,7 +5037,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="56:56">
       <c r="BD14" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1"/>
@@ -5037,7 +5046,7 @@
         <v>20005</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>101</v>
@@ -5166,7 +5175,7 @@
         <v>1.5</v>
       </c>
       <c r="BM16" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="33:60">
@@ -5174,10 +5183,10 @@
         <v>120</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BH17" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="33:60">
@@ -5185,10 +5194,10 @@
         <v>124</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BH18" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="33:60">
@@ -5199,15 +5208,15 @@
         <v>121</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="56:60">
       <c r="BD20" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BH20" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1"/>
@@ -5219,7 +5228,7 @@
         <v>20006</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>101</v>
@@ -5330,7 +5339,7 @@
         <v>0.85</v>
       </c>
       <c r="BD25" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BF25" s="2" t="s">
         <v>77</v>
@@ -5339,7 +5348,7 @@
         <v>0.05</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BJ25" s="2" t="s">
         <v>117</v>
@@ -5353,13 +5362,13 @@
         <v>120</v>
       </c>
       <c r="BD26" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BH26" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BM26" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="33:56">
@@ -5367,7 +5376,7 @@
         <v>124</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="33:56">
@@ -5380,7 +5389,7 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="56:56">
       <c r="BD29" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="2:65">
@@ -5388,7 +5397,7 @@
         <v>20007</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>101</v>
@@ -5501,7 +5510,7 @@
         <v>0.85</v>
       </c>
       <c r="BD31" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BE31" s="2"/>
       <c r="BF31" s="2" t="s">
@@ -5511,7 +5520,7 @@
         <v>0.05</v>
       </c>
       <c r="BH31" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BJ31" s="2" t="s">
         <v>117</v>
@@ -5529,19 +5538,19 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
       <c r="BD32" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="2"/>
       <c r="BM32" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="33:60">
@@ -5551,7 +5560,7 @@
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
       <c r="BD33" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
@@ -5579,7 +5588,7 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
       <c r="BD35" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
